--- a/박진형 일정.xlsx
+++ b/박진형 일정.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\박진형\일상\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620504A0-491D-4B8E-852A-D0AB35879C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972D9106-A2A2-4D62-8848-22F5E7A387DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="15년" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6354" uniqueCount="3143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6372" uniqueCount="3151">
   <si>
     <t>6</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -14352,6 +14352,45 @@
     <t>5시 고대치기공 모임
 반포 라꾸돈까스
 조용호 어머님 가게</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결혼기념일
+윤여희 생일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7시 문래 스몰
+정유열, 이주희</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김승규 생일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배문성 설날 미리 연락해보기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 대우아파트
+8시 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 송별회 이태준 선임,
+유재욱, 조명범, 정은채
+상암 골목대장포장마차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 이경진 책임, 이태준 선임
+저녁 권승미, 방진실, 오지인
+목포회수산 - 우리집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19시반 에어부산 김포-&gt;김해</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -15768,8 +15807,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="8" width="22.625" customWidth="1"/>
+    <col min="1" max="1" width="9.59765625" customWidth="1"/>
+    <col min="2" max="8" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.1" customHeight="1">
@@ -17663,8 +17702,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="8" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="8.84765625" customWidth="1"/>
+    <col min="2" max="8" width="25.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
@@ -19403,7 +19442,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="1" max="1" width="9.59765625" customWidth="1"/>
     <col min="2" max="8" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23388,6 +23427,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A58:A73"/>
+    <mergeCell ref="A107:A124"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A75:A89"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="A38:A56"/>
     <mergeCell ref="A126:A141"/>
@@ -23395,12 +23440,6 @@
     <mergeCell ref="A196:A210"/>
     <mergeCell ref="A180:A194"/>
     <mergeCell ref="A143:A159"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A58:A73"/>
-    <mergeCell ref="A107:A124"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A75:A89"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23416,8 +23455,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="8" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="8.84765625" customWidth="1"/>
+    <col min="2" max="8" width="25.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
@@ -25872,7 +25911,7 @@
       <c r="G137" s="99"/>
       <c r="H137" s="99"/>
     </row>
-    <row r="138" spans="1:14" ht="35.25">
+    <row r="138" spans="1:14" ht="35.700000000000003">
       <c r="A138" s="85" t="s">
         <v>898</v>
       </c>
@@ -26154,7 +26193,7 @@
       <c r="G153" s="101"/>
       <c r="H153" s="101"/>
     </row>
-    <row r="154" spans="1:8" ht="35.25">
+    <row r="154" spans="1:8" ht="35.700000000000003">
       <c r="A154" s="85" t="s">
         <v>1395</v>
       </c>
@@ -27100,11 +27139,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A187:A204"/>
-    <mergeCell ref="A171:A185"/>
-    <mergeCell ref="A155:A169"/>
-    <mergeCell ref="A139:A153"/>
-    <mergeCell ref="A123:A137"/>
     <mergeCell ref="A104:A121"/>
     <mergeCell ref="A88:A102"/>
     <mergeCell ref="A2:A16"/>
@@ -27112,6 +27146,11 @@
     <mergeCell ref="A34:A51"/>
     <mergeCell ref="A53:A70"/>
     <mergeCell ref="A72:A86"/>
+    <mergeCell ref="A187:A204"/>
+    <mergeCell ref="A171:A185"/>
+    <mergeCell ref="A155:A169"/>
+    <mergeCell ref="A139:A153"/>
+    <mergeCell ref="A123:A137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27130,8 +27169,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="8" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="8.84765625" customWidth="1"/>
+    <col min="2" max="8" width="25.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
@@ -28702,7 +28741,7 @@
       <c r="G80" s="139"/>
       <c r="H80" s="139"/>
     </row>
-    <row r="81" spans="1:8" s="83" customFormat="1" ht="35.25">
+    <row r="81" spans="1:8" s="83" customFormat="1" ht="35.700000000000003">
       <c r="A81" s="85" t="s">
         <v>887</v>
       </c>
@@ -30988,7 +31027,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="1" max="1" width="8.84765625" customWidth="1"/>
     <col min="2" max="8" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -31155,7 +31194,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="24">
+    <row r="8" spans="1:17" ht="21.9">
       <c r="A8" s="226"/>
       <c r="B8" s="164" t="s">
         <v>2041</v>
@@ -35015,7 +35054,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="162" customWidth="1"/>
+    <col min="1" max="1" width="8.84765625" style="162" customWidth="1"/>
     <col min="2" max="8" width="25.5" style="162" customWidth="1"/>
     <col min="9" max="16384" width="8.75" style="162"/>
   </cols>
@@ -35604,7 +35643,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="12" customFormat="1" ht="24">
+    <row r="31" spans="1:8" s="12" customFormat="1" ht="21.9">
       <c r="A31" s="226"/>
       <c r="B31" s="164" t="s">
         <v>17</v>
@@ -36336,7 +36375,7 @@
       <c r="G68" s="180"/>
       <c r="H68" s="180"/>
     </row>
-    <row r="69" spans="1:14" ht="35.25">
+    <row r="69" spans="1:14" ht="35.700000000000003">
       <c r="A69" s="184" t="s">
         <v>540</v>
       </c>
@@ -36368,7 +36407,7 @@
       <c r="M69" s="182"/>
       <c r="N69" s="177"/>
     </row>
-    <row r="70" spans="1:14" ht="24">
+    <row r="70" spans="1:14" ht="21.9">
       <c r="A70" s="225"/>
       <c r="B70" s="190"/>
       <c r="C70" s="191"/>
@@ -37115,7 +37154,7 @@
       <c r="G108" s="188"/>
       <c r="H108" s="188"/>
     </row>
-    <row r="109" spans="1:14" ht="35.25">
+    <row r="109" spans="1:14" ht="35.700000000000003">
       <c r="A109" s="195" t="s">
         <v>542</v>
       </c>
@@ -39076,11 +39115,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A197:A211"/>
-    <mergeCell ref="A181:A195"/>
-    <mergeCell ref="A165:A179"/>
-    <mergeCell ref="A148:A163"/>
-    <mergeCell ref="A127:A146"/>
     <mergeCell ref="A110:A125"/>
     <mergeCell ref="A94:A108"/>
     <mergeCell ref="A2:A16"/>
@@ -39088,6 +39122,11 @@
     <mergeCell ref="A36:A50"/>
     <mergeCell ref="A52:A68"/>
     <mergeCell ref="A70:A92"/>
+    <mergeCell ref="A197:A211"/>
+    <mergeCell ref="A181:A195"/>
+    <mergeCell ref="A165:A179"/>
+    <mergeCell ref="A148:A163"/>
+    <mergeCell ref="A127:A146"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39102,7 +39141,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="193" customWidth="1"/>
+    <col min="1" max="1" width="8.84765625" style="193" customWidth="1"/>
     <col min="2" max="8" width="25.75" style="193" customWidth="1"/>
     <col min="9" max="16384" width="8.75" style="193"/>
   </cols>
@@ -43032,15 +43071,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D31B6-BD14-4EA0-BC45-97C235EBCC6E}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="193" customWidth="1"/>
+    <col min="1" max="1" width="8.84765625" style="193" customWidth="1"/>
     <col min="2" max="8" width="25.75" style="193" customWidth="1"/>
     <col min="9" max="16384" width="8.75" style="193"/>
   </cols>
@@ -43263,6 +43302,72 @@
       <c r="G13" s="198"/>
       <c r="H13" s="198" t="s">
         <v>3142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A14" s="193"/>
+      <c r="B14" s="179" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="194" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="194" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="194" t="s">
+        <v>859</v>
+      </c>
+      <c r="F14" s="194" t="s">
+        <v>860</v>
+      </c>
+      <c r="G14" s="194" t="s">
+        <v>861</v>
+      </c>
+      <c r="H14" s="194" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A15" s="193"/>
+      <c r="B15" s="154" t="s">
+        <v>3143</v>
+      </c>
+      <c r="C15" s="198" t="s">
+        <v>3144</v>
+      </c>
+      <c r="D15" s="198"/>
+      <c r="E15" s="198" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F15" s="198" t="s">
+        <v>3145</v>
+      </c>
+      <c r="G15" s="198" t="s">
+        <v>3146</v>
+      </c>
+      <c r="H15" s="198" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A16" s="193"/>
+      <c r="B16" s="198" t="s">
+        <v>3147</v>
+      </c>
+      <c r="C16" s="198"/>
+      <c r="D16" s="198"/>
+      <c r="E16" s="198" t="s">
+        <v>3116</v>
+      </c>
+      <c r="F16" s="198" t="s">
+        <v>3148</v>
+      </c>
+      <c r="G16" s="198" t="s">
+        <v>3149</v>
+      </c>
+      <c r="H16" s="198" t="s">
+        <v>3150</v>
       </c>
     </row>
   </sheetData>
@@ -43279,8 +43384,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="8" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="8.84765625" customWidth="1"/>
+    <col min="2" max="8" width="25.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">

--- a/박진형 일정.xlsx
+++ b/박진형 일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972D9106-A2A2-4D62-8848-22F5E7A387DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0ECB19-7250-4E7D-AF73-535C8346830E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6372" uniqueCount="3151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6377" uniqueCount="3154">
   <si>
     <t>6</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -14391,6 +14391,20 @@
   </si>
   <si>
     <t>19시반 에어부산 김포-&gt;김해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12시 지산고축구 스포원D
+저녁 장전동 가족 모임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11시반 대우아파트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>젖병건조기 일초본드 붙이기
+포스터 붙이는 의료용 테이프</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -23427,12 +23441,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A58:A73"/>
-    <mergeCell ref="A107:A124"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A75:A89"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="A38:A56"/>
     <mergeCell ref="A126:A141"/>
@@ -23440,6 +23448,12 @@
     <mergeCell ref="A196:A210"/>
     <mergeCell ref="A180:A194"/>
     <mergeCell ref="A143:A159"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A58:A73"/>
+    <mergeCell ref="A107:A124"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A75:A89"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27139,6 +27153,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A187:A204"/>
+    <mergeCell ref="A171:A185"/>
+    <mergeCell ref="A155:A169"/>
+    <mergeCell ref="A139:A153"/>
+    <mergeCell ref="A123:A137"/>
     <mergeCell ref="A104:A121"/>
     <mergeCell ref="A88:A102"/>
     <mergeCell ref="A2:A16"/>
@@ -27146,11 +27165,6 @@
     <mergeCell ref="A34:A51"/>
     <mergeCell ref="A53:A70"/>
     <mergeCell ref="A72:A86"/>
-    <mergeCell ref="A187:A204"/>
-    <mergeCell ref="A171:A185"/>
-    <mergeCell ref="A155:A169"/>
-    <mergeCell ref="A139:A153"/>
-    <mergeCell ref="A123:A137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39115,6 +39129,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A197:A211"/>
+    <mergeCell ref="A181:A195"/>
+    <mergeCell ref="A165:A179"/>
+    <mergeCell ref="A148:A163"/>
+    <mergeCell ref="A127:A146"/>
     <mergeCell ref="A110:A125"/>
     <mergeCell ref="A94:A108"/>
     <mergeCell ref="A2:A16"/>
@@ -39122,11 +39141,6 @@
     <mergeCell ref="A36:A50"/>
     <mergeCell ref="A52:A68"/>
     <mergeCell ref="A70:A92"/>
-    <mergeCell ref="A197:A211"/>
-    <mergeCell ref="A181:A195"/>
-    <mergeCell ref="A165:A179"/>
-    <mergeCell ref="A148:A163"/>
-    <mergeCell ref="A127:A146"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43071,10 +43085,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D31B6-BD14-4EA0-BC45-97C235EBCC6E}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -43111,7 +43125,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A2" s="193"/>
+      <c r="A2" s="225"/>
       <c r="B2" s="172"/>
       <c r="C2" s="173"/>
       <c r="D2" s="174"/>
@@ -43123,7 +43137,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A3" s="193"/>
+      <c r="A3" s="226"/>
       <c r="B3" s="198"/>
       <c r="C3" s="198"/>
       <c r="D3" s="198"/>
@@ -43135,7 +43149,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A4" s="193"/>
+      <c r="A4" s="226"/>
       <c r="B4" s="198"/>
       <c r="C4" s="198"/>
       <c r="D4" s="198"/>
@@ -43145,7 +43159,7 @@
       <c r="H4" s="198"/>
     </row>
     <row r="5" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A5" s="193"/>
+      <c r="A5" s="226"/>
       <c r="B5" s="179" t="s">
         <v>26</v>
       </c>
@@ -43169,7 +43183,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A6" s="193"/>
+      <c r="A6" s="226"/>
       <c r="B6" s="198" t="s">
         <v>3134</v>
       </c>
@@ -43191,7 +43205,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A7" s="193"/>
+      <c r="A7" s="226"/>
       <c r="B7" s="198"/>
       <c r="C7" s="198"/>
       <c r="D7" s="198" t="s">
@@ -43203,7 +43217,7 @@
       <c r="H7" s="198"/>
     </row>
     <row r="8" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="193"/>
+      <c r="A8" s="226"/>
       <c r="B8" s="179" t="s">
         <v>31</v>
       </c>
@@ -43227,7 +43241,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A9" s="193"/>
+      <c r="A9" s="226"/>
       <c r="B9" s="198"/>
       <c r="C9" s="198"/>
       <c r="D9" s="198" t="s">
@@ -43241,7 +43255,7 @@
       <c r="H9" s="198"/>
     </row>
     <row r="10" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A10" s="193"/>
+      <c r="A10" s="226"/>
       <c r="B10" s="198"/>
       <c r="C10" s="198"/>
       <c r="D10" s="198"/>
@@ -43251,7 +43265,7 @@
       <c r="H10" s="198"/>
     </row>
     <row r="11" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A11" s="193"/>
+      <c r="A11" s="226"/>
       <c r="B11" s="179" t="s">
         <v>10</v>
       </c>
@@ -43275,7 +43289,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A12" s="193"/>
+      <c r="A12" s="226"/>
       <c r="B12" s="198"/>
       <c r="C12" s="198" t="s">
         <v>1522</v>
@@ -43293,7 +43307,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A13" s="193"/>
+      <c r="A13" s="226"/>
       <c r="B13" s="198"/>
       <c r="C13" s="198"/>
       <c r="D13" s="198"/>
@@ -43305,7 +43319,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A14" s="193"/>
+      <c r="A14" s="226"/>
       <c r="B14" s="179" t="s">
         <v>17</v>
       </c>
@@ -43329,7 +43343,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A15" s="193"/>
+      <c r="A15" s="226"/>
       <c r="B15" s="154" t="s">
         <v>3143</v>
       </c>
@@ -43351,7 +43365,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A16" s="193"/>
+      <c r="A16" s="226"/>
       <c r="B16" s="198" t="s">
         <v>3147</v>
       </c>
@@ -43370,7 +43384,50 @@
         <v>3150</v>
       </c>
     </row>
+    <row r="17" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A17" s="226"/>
+      <c r="B17" s="179" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="179" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="171"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="171"/>
+    </row>
+    <row r="18" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A18" s="226"/>
+      <c r="B18" s="198" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C18" s="198" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D18" s="198"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="198"/>
+      <c r="H18" s="198"/>
+    </row>
+    <row r="19" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A19" s="227"/>
+      <c r="B19" s="198"/>
+      <c r="C19" s="198" t="s">
+        <v>3153</v>
+      </c>
+      <c r="D19" s="198"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="198"/>
+      <c r="G19" s="198"/>
+      <c r="H19" s="198"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A19"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/박진형 일정.xlsx
+++ b/박진형 일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0ECB19-7250-4E7D-AF73-535C8346830E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F784F85-9BAB-4F0E-B4B0-C83ECAB111A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43087,8 +43087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D31B6-BD14-4EA0-BC45-97C235EBCC6E}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>

--- a/박진형 일정.xlsx
+++ b/박진형 일정.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F784F85-9BAB-4F0E-B4B0-C83ECAB111A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6231AF07-637C-4E4B-A376-A766F1ECC3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="15년" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6377" uniqueCount="3154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6399" uniqueCount="3164">
   <si>
     <t>6</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -14405,6 +14405,59 @@
   <si>
     <t>젖병건조기 일초본드 붙이기
 포스터 붙이는 의료용 테이프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 (설날)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>알뜰교통카드
+모바일캐시비 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6시 동래역 환승센터
+임시선별검사소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수협은행 적금 위임장 -
+부산은행 58만 1000원 -
+순병원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>손혜민 생일
+저녁 암 환우회 신논현
+이승배, 왕건, 송성윤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 풍원장 꼬막정찬 -
+온천장 밀한줌 -
+대우아파트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3시 안평노인건강센터 할머니
+고대치기공, 지산고 회비 입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박한솔 독감예방주사 2차 -
+신세계 센텀 - 롯데 부산본점
+스토케 트립트랩, 프레디페리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3시 한화리조트 해운대 -
+스토리오브라망 마린시티점 -
+저녁 회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20시 에어부산 김해-&gt;김포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -15821,8 +15874,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" customWidth="1"/>
-    <col min="2" max="8" width="22.59765625" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="8" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.1" customHeight="1">
@@ -17716,8 +17769,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.84765625" customWidth="1"/>
-    <col min="2" max="8" width="25.59765625" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="8" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
@@ -19456,7 +19509,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
     <col min="2" max="8" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23469,8 +23522,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.84765625" customWidth="1"/>
-    <col min="2" max="8" width="25.59765625" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="8" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
@@ -25925,7 +25978,7 @@
       <c r="G137" s="99"/>
       <c r="H137" s="99"/>
     </row>
-    <row r="138" spans="1:14" ht="35.700000000000003">
+    <row r="138" spans="1:14" ht="35.25">
       <c r="A138" s="85" t="s">
         <v>898</v>
       </c>
@@ -26207,7 +26260,7 @@
       <c r="G153" s="101"/>
       <c r="H153" s="101"/>
     </row>
-    <row r="154" spans="1:8" ht="35.700000000000003">
+    <row r="154" spans="1:8" ht="35.25">
       <c r="A154" s="85" t="s">
         <v>1395</v>
       </c>
@@ -27183,8 +27236,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.84765625" customWidth="1"/>
-    <col min="2" max="8" width="25.59765625" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="8" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
@@ -28755,7 +28808,7 @@
       <c r="G80" s="139"/>
       <c r="H80" s="139"/>
     </row>
-    <row r="81" spans="1:8" s="83" customFormat="1" ht="35.700000000000003">
+    <row r="81" spans="1:8" s="83" customFormat="1" ht="35.25">
       <c r="A81" s="85" t="s">
         <v>887</v>
       </c>
@@ -31041,7 +31094,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.84765625" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="8" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -31208,7 +31261,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="21.9">
+    <row r="8" spans="1:17" ht="24">
       <c r="A8" s="226"/>
       <c r="B8" s="164" t="s">
         <v>2041</v>
@@ -35068,7 +35121,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.84765625" style="162" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="162" customWidth="1"/>
     <col min="2" max="8" width="25.5" style="162" customWidth="1"/>
     <col min="9" max="16384" width="8.75" style="162"/>
   </cols>
@@ -35657,7 +35710,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="12" customFormat="1" ht="21.9">
+    <row r="31" spans="1:8" s="12" customFormat="1" ht="24">
       <c r="A31" s="226"/>
       <c r="B31" s="164" t="s">
         <v>17</v>
@@ -36389,7 +36442,7 @@
       <c r="G68" s="180"/>
       <c r="H68" s="180"/>
     </row>
-    <row r="69" spans="1:14" ht="35.700000000000003">
+    <row r="69" spans="1:14" ht="35.25">
       <c r="A69" s="184" t="s">
         <v>540</v>
       </c>
@@ -36421,7 +36474,7 @@
       <c r="M69" s="182"/>
       <c r="N69" s="177"/>
     </row>
-    <row r="70" spans="1:14" ht="21.9">
+    <row r="70" spans="1:14" ht="24">
       <c r="A70" s="225"/>
       <c r="B70" s="190"/>
       <c r="C70" s="191"/>
@@ -37168,7 +37221,7 @@
       <c r="G108" s="188"/>
       <c r="H108" s="188"/>
     </row>
-    <row r="109" spans="1:14" ht="35.700000000000003">
+    <row r="109" spans="1:14" ht="35.25">
       <c r="A109" s="195" t="s">
         <v>542</v>
       </c>
@@ -39155,7 +39208,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.84765625" style="193" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="193" customWidth="1"/>
     <col min="2" max="8" width="25.75" style="193" customWidth="1"/>
     <col min="9" max="16384" width="8.75" style="193"/>
   </cols>
@@ -43085,15 +43138,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D31B6-BD14-4EA0-BC45-97C235EBCC6E}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.84765625" style="193" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="193" customWidth="1"/>
     <col min="2" max="8" width="25.75" style="193" customWidth="1"/>
     <col min="9" max="16384" width="8.75" style="193"/>
   </cols>
@@ -43423,6 +43476,90 @@
       <c r="F19" s="198"/>
       <c r="G19" s="198"/>
       <c r="H19" s="198"/>
+    </row>
+    <row r="20" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A20" s="195" t="s">
+        <v>798</v>
+      </c>
+      <c r="B20" s="197" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="196" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="196" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="196" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="196" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="196" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="196" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A21" s="193"/>
+      <c r="B21" s="172"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="161" t="s">
+        <v>3154</v>
+      </c>
+      <c r="E21" s="179" t="s">
+        <v>798</v>
+      </c>
+      <c r="F21" s="194" t="s">
+        <v>799</v>
+      </c>
+      <c r="G21" s="194" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="194" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A22" s="193"/>
+      <c r="B22" s="198"/>
+      <c r="C22" s="198"/>
+      <c r="D22" s="198" t="s">
+        <v>3155</v>
+      </c>
+      <c r="E22" s="198" t="s">
+        <v>3156</v>
+      </c>
+      <c r="F22" s="198" t="s">
+        <v>3157</v>
+      </c>
+      <c r="G22" s="198" t="s">
+        <v>3158</v>
+      </c>
+      <c r="H22" s="198" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A23" s="193"/>
+      <c r="B23" s="198"/>
+      <c r="C23" s="198"/>
+      <c r="D23" s="198" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E23" s="198"/>
+      <c r="F23" s="198" t="s">
+        <v>3161</v>
+      </c>
+      <c r="G23" s="198" t="s">
+        <v>3162</v>
+      </c>
+      <c r="H23" s="198" t="s">
+        <v>3163</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -43441,8 +43578,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.84765625" customWidth="1"/>
-    <col min="2" max="8" width="25.59765625" customWidth="1"/>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="8" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">

--- a/박진형 일정.xlsx
+++ b/박진형 일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6231AF07-637C-4E4B-A376-A766F1ECC3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC67BAA-0D1D-466F-BD2D-B224E3BA8003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6399" uniqueCount="3164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6414" uniqueCount="3171">
   <si>
     <t>6</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -14458,6 +14458,38 @@
   </si>
   <si>
     <t>20시 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상암유플러스 짐 찾으러 가기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오전 연말정산 서류제출
+LG전자가산 A동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 서부운전면허시험장
+IC 모바일 운전면허증 재발급</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2시 오협 결혼 - 10만원
+판교 더블유스퀘어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 6시 면허증 받음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21시5분 에어부산 김포-&gt;김해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 고현석-하윤실-고결
+저녁 이마트 박한솔 이유식</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -23494,6 +23526,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A58:A73"/>
+    <mergeCell ref="A107:A124"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A75:A89"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="A38:A56"/>
     <mergeCell ref="A126:A141"/>
@@ -23501,12 +23539,6 @@
     <mergeCell ref="A196:A210"/>
     <mergeCell ref="A180:A194"/>
     <mergeCell ref="A143:A159"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A58:A73"/>
-    <mergeCell ref="A107:A124"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A75:A89"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27206,11 +27238,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A187:A204"/>
-    <mergeCell ref="A171:A185"/>
-    <mergeCell ref="A155:A169"/>
-    <mergeCell ref="A139:A153"/>
-    <mergeCell ref="A123:A137"/>
     <mergeCell ref="A104:A121"/>
     <mergeCell ref="A88:A102"/>
     <mergeCell ref="A2:A16"/>
@@ -27218,6 +27245,11 @@
     <mergeCell ref="A34:A51"/>
     <mergeCell ref="A53:A70"/>
     <mergeCell ref="A72:A86"/>
+    <mergeCell ref="A187:A204"/>
+    <mergeCell ref="A171:A185"/>
+    <mergeCell ref="A155:A169"/>
+    <mergeCell ref="A139:A153"/>
+    <mergeCell ref="A123:A137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39182,11 +39214,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A197:A211"/>
-    <mergeCell ref="A181:A195"/>
-    <mergeCell ref="A165:A179"/>
-    <mergeCell ref="A148:A163"/>
-    <mergeCell ref="A127:A146"/>
     <mergeCell ref="A110:A125"/>
     <mergeCell ref="A94:A108"/>
     <mergeCell ref="A2:A16"/>
@@ -39194,6 +39221,11 @@
     <mergeCell ref="A36:A50"/>
     <mergeCell ref="A52:A68"/>
     <mergeCell ref="A70:A92"/>
+    <mergeCell ref="A197:A211"/>
+    <mergeCell ref="A181:A195"/>
+    <mergeCell ref="A165:A179"/>
+    <mergeCell ref="A148:A163"/>
+    <mergeCell ref="A127:A146"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43138,10 +43170,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D31B6-BD14-4EA0-BC45-97C235EBCC6E}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -43559,6 +43591,66 @@
       </c>
       <c r="H23" s="198" t="s">
         <v>3163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A24" s="193"/>
+      <c r="B24" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="194" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="194" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="194" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="194" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="194" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="194" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A25" s="193"/>
+      <c r="B25" s="198" t="s">
+        <v>3164</v>
+      </c>
+      <c r="C25" s="198"/>
+      <c r="D25" s="198" t="s">
+        <v>3165</v>
+      </c>
+      <c r="E25" s="198" t="s">
+        <v>3166</v>
+      </c>
+      <c r="F25" s="198"/>
+      <c r="G25" s="198" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H25" s="198" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A26" s="193"/>
+      <c r="B26" s="198"/>
+      <c r="C26" s="198"/>
+      <c r="D26" s="198"/>
+      <c r="E26" s="198" t="s">
+        <v>3168</v>
+      </c>
+      <c r="F26" s="198"/>
+      <c r="G26" s="198" t="s">
+        <v>3169</v>
+      </c>
+      <c r="H26" s="198" t="s">
+        <v>3170</v>
       </c>
     </row>
   </sheetData>

--- a/박진형 일정.xlsx
+++ b/박진형 일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC67BAA-0D1D-466F-BD2D-B224E3BA8003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E6B4AA-FC74-46B0-9FBE-05565E75AC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6414" uniqueCount="3171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6430" uniqueCount="3176">
   <si>
     <t>6</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -14490,6 +14490,33 @@
   <si>
     <t>점심 고현석-하윤실-고결
 저녁 이마트 박한솔 이유식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조혜진 생일
+점심 이현정 친구
+괴정 캘리가든</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정지수 생일
+3기신도시 고양창릉
+사전청약 발표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오전 7시30분~
+LG CNS 전기차 예약(9920)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영우글로벌러닝 결제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 김용태 집들이
+김세훈, 김용태, 한지연,
+강지원, 정유찬</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -23526,12 +23553,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A58:A73"/>
-    <mergeCell ref="A107:A124"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A75:A89"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="A38:A56"/>
     <mergeCell ref="A126:A141"/>
@@ -23539,6 +23560,12 @@
     <mergeCell ref="A196:A210"/>
     <mergeCell ref="A180:A194"/>
     <mergeCell ref="A143:A159"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A58:A73"/>
+    <mergeCell ref="A107:A124"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A75:A89"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27238,6 +27265,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A187:A204"/>
+    <mergeCell ref="A171:A185"/>
+    <mergeCell ref="A155:A169"/>
+    <mergeCell ref="A139:A153"/>
+    <mergeCell ref="A123:A137"/>
     <mergeCell ref="A104:A121"/>
     <mergeCell ref="A88:A102"/>
     <mergeCell ref="A2:A16"/>
@@ -27245,11 +27277,6 @@
     <mergeCell ref="A34:A51"/>
     <mergeCell ref="A53:A70"/>
     <mergeCell ref="A72:A86"/>
-    <mergeCell ref="A187:A204"/>
-    <mergeCell ref="A171:A185"/>
-    <mergeCell ref="A155:A169"/>
-    <mergeCell ref="A139:A153"/>
-    <mergeCell ref="A123:A137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39214,6 +39241,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A197:A211"/>
+    <mergeCell ref="A181:A195"/>
+    <mergeCell ref="A165:A179"/>
+    <mergeCell ref="A148:A163"/>
+    <mergeCell ref="A127:A146"/>
     <mergeCell ref="A110:A125"/>
     <mergeCell ref="A94:A108"/>
     <mergeCell ref="A2:A16"/>
@@ -39221,11 +39253,6 @@
     <mergeCell ref="A36:A50"/>
     <mergeCell ref="A52:A68"/>
     <mergeCell ref="A70:A92"/>
-    <mergeCell ref="A197:A211"/>
-    <mergeCell ref="A181:A195"/>
-    <mergeCell ref="A165:A179"/>
-    <mergeCell ref="A148:A163"/>
-    <mergeCell ref="A127:A146"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43170,10 +43197,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D31B6-BD14-4EA0-BC45-97C235EBCC6E}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -43652,6 +43679,68 @@
       <c r="H26" s="198" t="s">
         <v>3170</v>
       </c>
+    </row>
+    <row r="27" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A27" s="193"/>
+      <c r="B27" s="179" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="194" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="194" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="194" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="194" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="194" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="194" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A28" s="193"/>
+      <c r="B28" s="198" t="s">
+        <v>3171</v>
+      </c>
+      <c r="C28" s="198" t="s">
+        <v>2470</v>
+      </c>
+      <c r="D28" s="198" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E28" s="198" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F28" s="198" t="s">
+        <v>3172</v>
+      </c>
+      <c r="G28" s="198"/>
+      <c r="H28" s="198" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A29" s="193"/>
+      <c r="B29" s="198" t="s">
+        <v>3163</v>
+      </c>
+      <c r="C29" s="198"/>
+      <c r="D29" s="198" t="s">
+        <v>3174</v>
+      </c>
+      <c r="E29" s="198" t="s">
+        <v>3175</v>
+      </c>
+      <c r="F29" s="198"/>
+      <c r="G29" s="198"/>
+      <c r="H29" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/박진형 일정.xlsx
+++ b/박진형 일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E6B4AA-FC74-46B0-9FBE-05565E75AC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDC7773-0D31-4521-85D2-F6C9E0FC150B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6430" uniqueCount="3176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6450" uniqueCount="3182">
   <si>
     <t>6</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -14517,6 +14517,36 @@
     <t>저녁 김용태 집들이
 김세훈, 김용태, 한지연,
 강지원, 정유찬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>~저녁 9시
+LG CNS 전기차 예약(9920)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 천호 이승배
+오징어참치 - 유경참숯생고기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장인어른 생신 (음력 1/26)
+밀한줌 - 온도케이크 -
+이승헌집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수협 적금만기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김현정, 문정민 생일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수협은행 -
+농협부산대(청년희망적금) -
+신세계 센텀시티(고야드)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -23553,6 +23583,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A58:A73"/>
+    <mergeCell ref="A107:A124"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A75:A89"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="A38:A56"/>
     <mergeCell ref="A126:A141"/>
@@ -23560,12 +23596,6 @@
     <mergeCell ref="A196:A210"/>
     <mergeCell ref="A180:A194"/>
     <mergeCell ref="A143:A159"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A58:A73"/>
-    <mergeCell ref="A107:A124"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A75:A89"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27265,11 +27295,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A187:A204"/>
-    <mergeCell ref="A171:A185"/>
-    <mergeCell ref="A155:A169"/>
-    <mergeCell ref="A139:A153"/>
-    <mergeCell ref="A123:A137"/>
     <mergeCell ref="A104:A121"/>
     <mergeCell ref="A88:A102"/>
     <mergeCell ref="A2:A16"/>
@@ -27277,6 +27302,11 @@
     <mergeCell ref="A34:A51"/>
     <mergeCell ref="A53:A70"/>
     <mergeCell ref="A72:A86"/>
+    <mergeCell ref="A187:A204"/>
+    <mergeCell ref="A171:A185"/>
+    <mergeCell ref="A155:A169"/>
+    <mergeCell ref="A139:A153"/>
+    <mergeCell ref="A123:A137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39241,11 +39271,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A197:A211"/>
-    <mergeCell ref="A181:A195"/>
-    <mergeCell ref="A165:A179"/>
-    <mergeCell ref="A148:A163"/>
-    <mergeCell ref="A127:A146"/>
     <mergeCell ref="A110:A125"/>
     <mergeCell ref="A94:A108"/>
     <mergeCell ref="A2:A16"/>
@@ -39253,6 +39278,11 @@
     <mergeCell ref="A36:A50"/>
     <mergeCell ref="A52:A68"/>
     <mergeCell ref="A70:A92"/>
+    <mergeCell ref="A197:A211"/>
+    <mergeCell ref="A181:A195"/>
+    <mergeCell ref="A165:A179"/>
+    <mergeCell ref="A148:A163"/>
+    <mergeCell ref="A127:A146"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43197,10 +43227,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D31B6-BD14-4EA0-BC45-97C235EBCC6E}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A30" sqref="A30:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -43742,9 +43772,110 @@
       <c r="G29" s="198"/>
       <c r="H29" s="198"/>
     </row>
+    <row r="30" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A30" s="226"/>
+      <c r="B30" s="179" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="194" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="194" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="194" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="194" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="194" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="194" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A31" s="226"/>
+      <c r="B31" s="198" t="s">
+        <v>3176</v>
+      </c>
+      <c r="C31" s="198" t="s">
+        <v>2185</v>
+      </c>
+      <c r="D31" s="198" t="s">
+        <v>3177</v>
+      </c>
+      <c r="E31" s="198" t="s">
+        <v>2853</v>
+      </c>
+      <c r="F31" s="198" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G31" s="198" t="s">
+        <v>3169</v>
+      </c>
+      <c r="H31" s="198" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A32" s="226"/>
+      <c r="B32" s="198"/>
+      <c r="C32" s="198"/>
+      <c r="D32" s="198"/>
+      <c r="E32" s="198"/>
+      <c r="F32" s="198"/>
+      <c r="G32" s="198"/>
+      <c r="H32" s="198" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A33" s="226"/>
+      <c r="B33" s="179" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="194" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="171"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="171"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="171"/>
+    </row>
+    <row r="34" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A34" s="226"/>
+      <c r="B34" s="198" t="s">
+        <v>3180</v>
+      </c>
+      <c r="C34" s="198" t="s">
+        <v>2088</v>
+      </c>
+      <c r="D34" s="198"/>
+      <c r="E34" s="198"/>
+      <c r="F34" s="198"/>
+      <c r="G34" s="198"/>
+      <c r="H34" s="198"/>
+    </row>
+    <row r="35" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A35" s="227"/>
+      <c r="B35" s="198"/>
+      <c r="C35" s="198" t="s">
+        <v>3181</v>
+      </c>
+      <c r="D35" s="198"/>
+      <c r="E35" s="198"/>
+      <c r="F35" s="198"/>
+      <c r="G35" s="198"/>
+      <c r="H35" s="198"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A30:A35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/박진형 일정.xlsx
+++ b/박진형 일정.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDC7773-0D31-4521-85D2-F6C9E0FC150B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C032C6EC-9D62-43F4-BE7C-5D173DD72180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6450" uniqueCount="3182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6470" uniqueCount="3189">
   <si>
     <t>6</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -14547,6 +14547,39 @@
     <t>수협은행 -
 농협부산대(청년희망적금) -
 신세계 센텀시티(고야드)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고대치기공, 지산고 회비 입금
+기장 클라임타워 카페</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3시 헌혈버스 헌혈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1시 청년미장원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 김창훈 책임님, 김도영
+냉동생삼겹 - 육회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성산2동주민센터
+사전투표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19시 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 7시30분 김민경
+세광양대창 강남역중앙점
+1시 정유찬 드라이브+술</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -23583,12 +23616,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A58:A73"/>
-    <mergeCell ref="A107:A124"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A75:A89"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="A38:A56"/>
     <mergeCell ref="A126:A141"/>
@@ -23596,6 +23623,12 @@
     <mergeCell ref="A196:A210"/>
     <mergeCell ref="A180:A194"/>
     <mergeCell ref="A143:A159"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A58:A73"/>
+    <mergeCell ref="A107:A124"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A75:A89"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27295,6 +27328,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A187:A204"/>
+    <mergeCell ref="A171:A185"/>
+    <mergeCell ref="A155:A169"/>
+    <mergeCell ref="A139:A153"/>
+    <mergeCell ref="A123:A137"/>
     <mergeCell ref="A104:A121"/>
     <mergeCell ref="A88:A102"/>
     <mergeCell ref="A2:A16"/>
@@ -27302,11 +27340,6 @@
     <mergeCell ref="A34:A51"/>
     <mergeCell ref="A53:A70"/>
     <mergeCell ref="A72:A86"/>
-    <mergeCell ref="A187:A204"/>
-    <mergeCell ref="A171:A185"/>
-    <mergeCell ref="A155:A169"/>
-    <mergeCell ref="A139:A153"/>
-    <mergeCell ref="A123:A137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39271,6 +39304,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A197:A211"/>
+    <mergeCell ref="A181:A195"/>
+    <mergeCell ref="A165:A179"/>
+    <mergeCell ref="A148:A163"/>
+    <mergeCell ref="A127:A146"/>
     <mergeCell ref="A110:A125"/>
     <mergeCell ref="A94:A108"/>
     <mergeCell ref="A2:A16"/>
@@ -39278,11 +39316,6 @@
     <mergeCell ref="A36:A50"/>
     <mergeCell ref="A52:A68"/>
     <mergeCell ref="A70:A92"/>
-    <mergeCell ref="A197:A211"/>
-    <mergeCell ref="A181:A195"/>
-    <mergeCell ref="A165:A179"/>
-    <mergeCell ref="A148:A163"/>
-    <mergeCell ref="A127:A146"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43227,10 +43260,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D31B6-BD14-4EA0-BC45-97C235EBCC6E}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:A35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -43593,7 +43626,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A21" s="193"/>
+      <c r="A21" s="225"/>
       <c r="B21" s="172"/>
       <c r="C21" s="173"/>
       <c r="D21" s="161" t="s">
@@ -43613,7 +43646,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A22" s="193"/>
+      <c r="A22" s="226"/>
       <c r="B22" s="198"/>
       <c r="C22" s="198"/>
       <c r="D22" s="198" t="s">
@@ -43633,7 +43666,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A23" s="193"/>
+      <c r="A23" s="226"/>
       <c r="B23" s="198"/>
       <c r="C23" s="198"/>
       <c r="D23" s="198" t="s">
@@ -43651,7 +43684,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A24" s="193"/>
+      <c r="A24" s="226"/>
       <c r="B24" s="179" t="s">
         <v>0</v>
       </c>
@@ -43675,7 +43708,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A25" s="193"/>
+      <c r="A25" s="226"/>
       <c r="B25" s="198" t="s">
         <v>3164</v>
       </c>
@@ -43695,7 +43728,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A26" s="193"/>
+      <c r="A26" s="226"/>
       <c r="B26" s="198"/>
       <c r="C26" s="198"/>
       <c r="D26" s="198"/>
@@ -43711,7 +43744,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A27" s="193"/>
+      <c r="A27" s="226"/>
       <c r="B27" s="179" t="s">
         <v>35</v>
       </c>
@@ -43735,7 +43768,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A28" s="193"/>
+      <c r="A28" s="226"/>
       <c r="B28" s="198" t="s">
         <v>3171</v>
       </c>
@@ -43757,7 +43790,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A29" s="193"/>
+      <c r="A29" s="226"/>
       <c r="B29" s="198" t="s">
         <v>3163</v>
       </c>
@@ -43872,10 +43905,90 @@
       <c r="G35" s="198"/>
       <c r="H35" s="198"/>
     </row>
+    <row r="36" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A36" s="195" t="s">
+        <v>799</v>
+      </c>
+      <c r="B36" s="197" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="196" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="196" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="196" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="196" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="196" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="196" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A37" s="193"/>
+      <c r="B37" s="172"/>
+      <c r="C37" s="173"/>
+      <c r="D37" s="161" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E37" s="194" t="s">
+        <v>798</v>
+      </c>
+      <c r="F37" s="194" t="s">
+        <v>799</v>
+      </c>
+      <c r="G37" s="194" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="194" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A38" s="193"/>
+      <c r="B38" s="198"/>
+      <c r="C38" s="198"/>
+      <c r="D38" s="198" t="s">
+        <v>3182</v>
+      </c>
+      <c r="E38" s="198" t="s">
+        <v>3183</v>
+      </c>
+      <c r="F38" s="198" t="s">
+        <v>3184</v>
+      </c>
+      <c r="G38" s="198" t="s">
+        <v>3185</v>
+      </c>
+      <c r="H38" s="198" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A39" s="193"/>
+      <c r="B39" s="198"/>
+      <c r="C39" s="198"/>
+      <c r="D39" s="198" t="s">
+        <v>3187</v>
+      </c>
+      <c r="E39" s="198"/>
+      <c r="F39" s="198" t="s">
+        <v>3188</v>
+      </c>
+      <c r="G39" s="198"/>
+      <c r="H39" s="198"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A21:A35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/박진형 일정.xlsx
+++ b/박진형 일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C032C6EC-9D62-43F4-BE7C-5D173DD72180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDECAF4-0F7F-4D16-BFDE-D990D7D1850A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6470" uniqueCount="3189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6502" uniqueCount="3201">
   <si>
     <t>6</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -14580,6 +14580,63 @@
     <t>저녁 7시30분 김민경
 세광양대창 강남역중앙점
 1시 정유찬 드라이브+술</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 (대통령 선거)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이현규 생일
+6시 공덕 이유진, 최상희,
+김효영, 김진혜, 이안제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아침 공덕 양지설렁탕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서동권 생일
+오전 8시30분 인화원교육 신청</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 금정보건소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공덕 계고기 - 김효영집
+마포웰츠타워 102동 2001호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오전 10시~ TCT COS Pro
+개발언어 신청
+3/25, 4/14 맨 앞 2개 신청하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오후 6시30분 마곡나루
+김세훈, 김용태, 정유찬
+초장집 - 생활맥주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 (생일)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>코로나 확진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코로나 확진 격리기간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기장 대보름 - 힐튼 - 아난티 -
+서면 더스타뷔페</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -23616,6 +23673,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A58:A73"/>
+    <mergeCell ref="A107:A124"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A75:A89"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="A38:A56"/>
     <mergeCell ref="A126:A141"/>
@@ -23623,12 +23686,6 @@
     <mergeCell ref="A196:A210"/>
     <mergeCell ref="A180:A194"/>
     <mergeCell ref="A143:A159"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A58:A73"/>
-    <mergeCell ref="A107:A124"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A75:A89"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27328,11 +27385,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A187:A204"/>
-    <mergeCell ref="A171:A185"/>
-    <mergeCell ref="A155:A169"/>
-    <mergeCell ref="A139:A153"/>
-    <mergeCell ref="A123:A137"/>
     <mergeCell ref="A104:A121"/>
     <mergeCell ref="A88:A102"/>
     <mergeCell ref="A2:A16"/>
@@ -27340,6 +27392,11 @@
     <mergeCell ref="A34:A51"/>
     <mergeCell ref="A53:A70"/>
     <mergeCell ref="A72:A86"/>
+    <mergeCell ref="A187:A204"/>
+    <mergeCell ref="A171:A185"/>
+    <mergeCell ref="A155:A169"/>
+    <mergeCell ref="A139:A153"/>
+    <mergeCell ref="A123:A137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39304,11 +39361,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A197:A211"/>
-    <mergeCell ref="A181:A195"/>
-    <mergeCell ref="A165:A179"/>
-    <mergeCell ref="A148:A163"/>
-    <mergeCell ref="A127:A146"/>
     <mergeCell ref="A110:A125"/>
     <mergeCell ref="A94:A108"/>
     <mergeCell ref="A2:A16"/>
@@ -39316,6 +39368,11 @@
     <mergeCell ref="A36:A50"/>
     <mergeCell ref="A52:A68"/>
     <mergeCell ref="A70:A92"/>
+    <mergeCell ref="A197:A211"/>
+    <mergeCell ref="A181:A195"/>
+    <mergeCell ref="A165:A179"/>
+    <mergeCell ref="A148:A163"/>
+    <mergeCell ref="A127:A146"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43260,10 +43317,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D31B6-BD14-4EA0-BC45-97C235EBCC6E}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -43984,6 +44041,140 @@
       </c>
       <c r="G39" s="198"/>
       <c r="H39" s="198"/>
+    </row>
+    <row r="40" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A40" s="193"/>
+      <c r="B40" s="179" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="194" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="194" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="179" t="s">
+        <v>3189</v>
+      </c>
+      <c r="F40" s="194" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="194" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="194" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A41" s="193"/>
+      <c r="B41" s="198"/>
+      <c r="C41" s="198"/>
+      <c r="D41" s="198" t="s">
+        <v>3190</v>
+      </c>
+      <c r="E41" s="198" t="s">
+        <v>3191</v>
+      </c>
+      <c r="F41" s="198" t="s">
+        <v>3192</v>
+      </c>
+      <c r="G41" s="198" t="s">
+        <v>3169</v>
+      </c>
+      <c r="H41" s="198" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A42" s="193"/>
+      <c r="B42" s="198"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="198" t="s">
+        <v>3194</v>
+      </c>
+      <c r="E42" s="198"/>
+      <c r="F42" s="198" t="s">
+        <v>3195</v>
+      </c>
+      <c r="G42" s="198"/>
+      <c r="H42" s="198"/>
+    </row>
+    <row r="43" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A43" s="193"/>
+      <c r="B43" s="198"/>
+      <c r="C43" s="198"/>
+      <c r="D43" s="198"/>
+      <c r="E43" s="198"/>
+      <c r="F43" s="198" t="s">
+        <v>3196</v>
+      </c>
+      <c r="G43" s="198"/>
+      <c r="H43" s="198"/>
+    </row>
+    <row r="44" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A44" s="193"/>
+      <c r="B44" s="179" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C44" s="194" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="194" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="194" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="194" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="194" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="194" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A45" s="193"/>
+      <c r="B45" s="198" t="s">
+        <v>3198</v>
+      </c>
+      <c r="C45" s="198" t="s">
+        <v>3199</v>
+      </c>
+      <c r="D45" s="198" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E45" s="198"/>
+      <c r="F45" s="198" t="s">
+        <v>2873</v>
+      </c>
+      <c r="G45" s="198" t="s">
+        <v>2874</v>
+      </c>
+      <c r="H45" s="198" t="s">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A46" s="193"/>
+      <c r="B46" s="198"/>
+      <c r="C46" s="198"/>
+      <c r="D46" s="198" t="s">
+        <v>3199</v>
+      </c>
+      <c r="E46" s="198" t="s">
+        <v>3199</v>
+      </c>
+      <c r="F46" s="198" t="s">
+        <v>3199</v>
+      </c>
+      <c r="G46" s="198" t="s">
+        <v>3199</v>
+      </c>
+      <c r="H46" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/박진형 일정.xlsx
+++ b/박진형 일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDECAF4-0F7F-4D16-BFDE-D990D7D1850A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC355CD-5A1C-45E3-85FF-C0FE485DF0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23673,12 +23673,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A58:A73"/>
-    <mergeCell ref="A107:A124"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A75:A89"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="A38:A56"/>
     <mergeCell ref="A126:A141"/>
@@ -23686,6 +23680,12 @@
     <mergeCell ref="A196:A210"/>
     <mergeCell ref="A180:A194"/>
     <mergeCell ref="A143:A159"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A58:A73"/>
+    <mergeCell ref="A107:A124"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A75:A89"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27385,6 +27385,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A187:A204"/>
+    <mergeCell ref="A171:A185"/>
+    <mergeCell ref="A155:A169"/>
+    <mergeCell ref="A139:A153"/>
+    <mergeCell ref="A123:A137"/>
     <mergeCell ref="A104:A121"/>
     <mergeCell ref="A88:A102"/>
     <mergeCell ref="A2:A16"/>
@@ -27392,11 +27397,6 @@
     <mergeCell ref="A34:A51"/>
     <mergeCell ref="A53:A70"/>
     <mergeCell ref="A72:A86"/>
-    <mergeCell ref="A187:A204"/>
-    <mergeCell ref="A171:A185"/>
-    <mergeCell ref="A155:A169"/>
-    <mergeCell ref="A139:A153"/>
-    <mergeCell ref="A123:A137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39361,6 +39361,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A197:A211"/>
+    <mergeCell ref="A181:A195"/>
+    <mergeCell ref="A165:A179"/>
+    <mergeCell ref="A148:A163"/>
+    <mergeCell ref="A127:A146"/>
     <mergeCell ref="A110:A125"/>
     <mergeCell ref="A94:A108"/>
     <mergeCell ref="A2:A16"/>
@@ -39368,11 +39373,6 @@
     <mergeCell ref="A36:A50"/>
     <mergeCell ref="A52:A68"/>
     <mergeCell ref="A70:A92"/>
-    <mergeCell ref="A197:A211"/>
-    <mergeCell ref="A181:A195"/>
-    <mergeCell ref="A165:A179"/>
-    <mergeCell ref="A148:A163"/>
-    <mergeCell ref="A127:A146"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43319,8 +43319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D31B6-BD14-4EA0-BC45-97C235EBCC6E}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>

--- a/박진형 일정.xlsx
+++ b/박진형 일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC355CD-5A1C-45E3-85FF-C0FE485DF0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6861136C-5CAE-455B-9E0E-FEF5A240F579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6502" uniqueCount="3201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6515" uniqueCount="3206">
   <si>
     <t>6</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -14637,6 +14637,32 @@
   <si>
     <t>기장 대보름 - 힐튼 - 아난티 -
 서면 더스타뷔페</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨스턴 조선호텔 부산 셔블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 7시 DMC역
+김건우, 이승근
+새벽돼지 - 이자카야</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9시30분 에어부산 김포-&gt;김해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이현정 생일
+신세계백화점 고야드 - 셔블 -
+대우아파트 - 1984나폴리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2시 손정엽 결혼 더펄웨딩홀
+2시 마경도 선임 결혼
+보테가마지오 지하2층</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -23673,6 +23699,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A58:A73"/>
+    <mergeCell ref="A107:A124"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A75:A89"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="A38:A56"/>
     <mergeCell ref="A126:A141"/>
@@ -23680,12 +23712,6 @@
     <mergeCell ref="A196:A210"/>
     <mergeCell ref="A180:A194"/>
     <mergeCell ref="A143:A159"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A58:A73"/>
-    <mergeCell ref="A107:A124"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A75:A89"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27385,11 +27411,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A187:A204"/>
-    <mergeCell ref="A171:A185"/>
-    <mergeCell ref="A155:A169"/>
-    <mergeCell ref="A139:A153"/>
-    <mergeCell ref="A123:A137"/>
     <mergeCell ref="A104:A121"/>
     <mergeCell ref="A88:A102"/>
     <mergeCell ref="A2:A16"/>
@@ -27397,6 +27418,11 @@
     <mergeCell ref="A34:A51"/>
     <mergeCell ref="A53:A70"/>
     <mergeCell ref="A72:A86"/>
+    <mergeCell ref="A187:A204"/>
+    <mergeCell ref="A171:A185"/>
+    <mergeCell ref="A155:A169"/>
+    <mergeCell ref="A139:A153"/>
+    <mergeCell ref="A123:A137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39361,11 +39387,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A197:A211"/>
-    <mergeCell ref="A181:A195"/>
-    <mergeCell ref="A165:A179"/>
-    <mergeCell ref="A148:A163"/>
-    <mergeCell ref="A127:A146"/>
     <mergeCell ref="A110:A125"/>
     <mergeCell ref="A94:A108"/>
     <mergeCell ref="A2:A16"/>
@@ -39373,6 +39394,11 @@
     <mergeCell ref="A36:A50"/>
     <mergeCell ref="A52:A68"/>
     <mergeCell ref="A70:A92"/>
+    <mergeCell ref="A197:A211"/>
+    <mergeCell ref="A181:A195"/>
+    <mergeCell ref="A165:A179"/>
+    <mergeCell ref="A148:A163"/>
+    <mergeCell ref="A127:A146"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43317,10 +43343,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D31B6-BD14-4EA0-BC45-97C235EBCC6E}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -44175,6 +44201,62 @@
         <v>3199</v>
       </c>
       <c r="H46" s="198"/>
+    </row>
+    <row r="47" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A47" s="193"/>
+      <c r="B47" s="179" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="194" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="194" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="194" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="194" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="194" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="194" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A48" s="193"/>
+      <c r="B48" s="198" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C48" s="198" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D48" s="198"/>
+      <c r="E48" s="198"/>
+      <c r="F48" s="198" t="s">
+        <v>3202</v>
+      </c>
+      <c r="G48" s="198" t="s">
+        <v>3203</v>
+      </c>
+      <c r="H48" s="154" t="s">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A49" s="193"/>
+      <c r="B49" s="198"/>
+      <c r="C49" s="198"/>
+      <c r="D49" s="198"/>
+      <c r="E49" s="198"/>
+      <c r="F49" s="198"/>
+      <c r="G49" s="198"/>
+      <c r="H49" s="198" t="s">
+        <v>3205</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/박진형 일정.xlsx
+++ b/박진형 일정.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6861136C-5CAE-455B-9E0E-FEF5A240F579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8C9632-4CB8-4C8D-A99B-0F114CE1D21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6515" uniqueCount="3206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6523" uniqueCount="3208">
   <si>
     <t>6</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -14663,6 +14663,17 @@
     <t>2시 손정엽 결혼 더펄웨딩홀
 2시 마경도 선임 결혼
 보테가마지오 지하2층</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 12시 김경회, 이재관
+303일상 - 할리스 금강식물원 -
+양산 토곡요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5시 E13 Future Lounge
+IAU 신규 전입자 간담회</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -23699,12 +23710,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A58:A73"/>
-    <mergeCell ref="A107:A124"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A75:A89"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="A38:A56"/>
     <mergeCell ref="A126:A141"/>
@@ -23712,6 +23717,12 @@
     <mergeCell ref="A196:A210"/>
     <mergeCell ref="A180:A194"/>
     <mergeCell ref="A143:A159"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A58:A73"/>
+    <mergeCell ref="A107:A124"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A75:A89"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27411,6 +27422,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A187:A204"/>
+    <mergeCell ref="A171:A185"/>
+    <mergeCell ref="A155:A169"/>
+    <mergeCell ref="A139:A153"/>
+    <mergeCell ref="A123:A137"/>
     <mergeCell ref="A104:A121"/>
     <mergeCell ref="A88:A102"/>
     <mergeCell ref="A2:A16"/>
@@ -27418,11 +27434,6 @@
     <mergeCell ref="A34:A51"/>
     <mergeCell ref="A53:A70"/>
     <mergeCell ref="A72:A86"/>
-    <mergeCell ref="A187:A204"/>
-    <mergeCell ref="A171:A185"/>
-    <mergeCell ref="A155:A169"/>
-    <mergeCell ref="A139:A153"/>
-    <mergeCell ref="A123:A137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39387,6 +39398,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A197:A211"/>
+    <mergeCell ref="A181:A195"/>
+    <mergeCell ref="A165:A179"/>
+    <mergeCell ref="A148:A163"/>
+    <mergeCell ref="A127:A146"/>
     <mergeCell ref="A110:A125"/>
     <mergeCell ref="A94:A108"/>
     <mergeCell ref="A2:A16"/>
@@ -39394,11 +39410,6 @@
     <mergeCell ref="A36:A50"/>
     <mergeCell ref="A52:A68"/>
     <mergeCell ref="A70:A92"/>
-    <mergeCell ref="A197:A211"/>
-    <mergeCell ref="A181:A195"/>
-    <mergeCell ref="A165:A179"/>
-    <mergeCell ref="A148:A163"/>
-    <mergeCell ref="A127:A146"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43343,10 +43354,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D31B6-BD14-4EA0-BC45-97C235EBCC6E}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -44015,7 +44026,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A37" s="193"/>
+      <c r="A37" s="225"/>
       <c r="B37" s="172"/>
       <c r="C37" s="173"/>
       <c r="D37" s="161" t="s">
@@ -44035,7 +44046,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A38" s="193"/>
+      <c r="A38" s="226"/>
       <c r="B38" s="198"/>
       <c r="C38" s="198"/>
       <c r="D38" s="198" t="s">
@@ -44055,7 +44066,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A39" s="193"/>
+      <c r="A39" s="226"/>
       <c r="B39" s="198"/>
       <c r="C39" s="198"/>
       <c r="D39" s="198" t="s">
@@ -44069,7 +44080,7 @@
       <c r="H39" s="198"/>
     </row>
     <row r="40" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A40" s="193"/>
+      <c r="A40" s="226"/>
       <c r="B40" s="179" t="s">
         <v>0</v>
       </c>
@@ -44093,7 +44104,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A41" s="193"/>
+      <c r="A41" s="226"/>
       <c r="B41" s="198"/>
       <c r="C41" s="198"/>
       <c r="D41" s="198" t="s">
@@ -44113,7 +44124,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A42" s="193"/>
+      <c r="A42" s="226"/>
       <c r="B42" s="198"/>
       <c r="C42" s="198"/>
       <c r="D42" s="198" t="s">
@@ -44127,7 +44138,7 @@
       <c r="H42" s="198"/>
     </row>
     <row r="43" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A43" s="193"/>
+      <c r="A43" s="226"/>
       <c r="B43" s="198"/>
       <c r="C43" s="198"/>
       <c r="D43" s="198"/>
@@ -44139,7 +44150,7 @@
       <c r="H43" s="198"/>
     </row>
     <row r="44" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A44" s="193"/>
+      <c r="A44" s="226"/>
       <c r="B44" s="179" t="s">
         <v>3197</v>
       </c>
@@ -44163,7 +44174,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A45" s="193"/>
+      <c r="A45" s="226"/>
       <c r="B45" s="198" t="s">
         <v>3198</v>
       </c>
@@ -44185,7 +44196,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A46" s="193"/>
+      <c r="A46" s="226"/>
       <c r="B46" s="198"/>
       <c r="C46" s="198"/>
       <c r="D46" s="198" t="s">
@@ -44203,7 +44214,7 @@
       <c r="H46" s="198"/>
     </row>
     <row r="47" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A47" s="193"/>
+      <c r="A47" s="226"/>
       <c r="B47" s="179" t="s">
         <v>14</v>
       </c>
@@ -44227,7 +44238,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A48" s="193"/>
+      <c r="A48" s="226"/>
       <c r="B48" s="198" t="s">
         <v>3201</v>
       </c>
@@ -44247,7 +44258,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A49" s="193"/>
+      <c r="A49" s="226"/>
       <c r="B49" s="198"/>
       <c r="C49" s="198"/>
       <c r="D49" s="198"/>
@@ -44258,10 +44269,57 @@
         <v>3205</v>
       </c>
     </row>
+    <row r="50" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A50" s="226"/>
+      <c r="B50" s="179" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="194" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="194" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="194" t="s">
+        <v>863</v>
+      </c>
+      <c r="F50" s="194" t="s">
+        <v>935</v>
+      </c>
+      <c r="G50" s="171"/>
+      <c r="H50" s="171"/>
+    </row>
+    <row r="51" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A51" s="226"/>
+      <c r="B51" s="198" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C51" s="198"/>
+      <c r="D51" s="198" t="s">
+        <v>3207</v>
+      </c>
+      <c r="E51" s="198"/>
+      <c r="F51" s="198"/>
+      <c r="G51" s="198"/>
+      <c r="H51" s="198"/>
+    </row>
+    <row r="52" spans="1:8" s="12" customFormat="1" ht="49.9" customHeight="1">
+      <c r="A52" s="227"/>
+      <c r="B52" s="198" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C52" s="198"/>
+      <c r="D52" s="198"/>
+      <c r="E52" s="198"/>
+      <c r="F52" s="198"/>
+      <c r="G52" s="198"/>
+      <c r="H52" s="198"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="A21:A35"/>
+    <mergeCell ref="A37:A52"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/박진형 일정.xlsx
+++ b/박진형 일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8C9632-4CB8-4C8D-A99B-0F114CE1D21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028A70A2-298B-424E-8C51-3563F3D3FE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6523" uniqueCount="3208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6549" uniqueCount="3216">
   <si>
     <t>6</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -14674,6 +14674,51 @@
   <si>
     <t>5시 E13 Future Lounge
 IAU 신규 전입자 간담회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정봉현, 노숙진 생일
+고대치기공, 지산고 회비 입금
+7시반 신논현 류재열, 이승배</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>송포갈비 - 혜장국
+11시30분
+웨스턴 조선호텔 셔블 예약</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 6시 혜화 박용현, 윤석원
+도토리편백집-이마쇼쿠-
+리춘시장-노원 용현이형 집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의주 순대국 - 메가커피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19시 마곡나루 icst 모임
+크라운호프
+20시반 에어부산 김포-&gt;김해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경주 교리김밥 - 페이지나인 -
+한화리조트 경주콘도
+예약번호 9295</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보문호 산책 - 라한셀렉트 -
+경주 원조콩국 - 장전동 집 -
+영남식육식당</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오스테리아밀즈 - 월정교 -
+한화리조트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -23710,6 +23755,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A58:A73"/>
+    <mergeCell ref="A107:A124"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A75:A89"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="A38:A56"/>
     <mergeCell ref="A126:A141"/>
@@ -23717,12 +23768,6 @@
     <mergeCell ref="A196:A210"/>
     <mergeCell ref="A180:A194"/>
     <mergeCell ref="A143:A159"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A58:A73"/>
-    <mergeCell ref="A107:A124"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A75:A89"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27422,11 +27467,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A187:A204"/>
-    <mergeCell ref="A171:A185"/>
-    <mergeCell ref="A155:A169"/>
-    <mergeCell ref="A139:A153"/>
-    <mergeCell ref="A123:A137"/>
     <mergeCell ref="A104:A121"/>
     <mergeCell ref="A88:A102"/>
     <mergeCell ref="A2:A16"/>
@@ -27434,6 +27474,11 @@
     <mergeCell ref="A34:A51"/>
     <mergeCell ref="A53:A70"/>
     <mergeCell ref="A72:A86"/>
+    <mergeCell ref="A187:A204"/>
+    <mergeCell ref="A171:A185"/>
+    <mergeCell ref="A155:A169"/>
+    <mergeCell ref="A139:A153"/>
+    <mergeCell ref="A123:A137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39398,11 +39443,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A197:A211"/>
-    <mergeCell ref="A181:A195"/>
-    <mergeCell ref="A165:A179"/>
-    <mergeCell ref="A148:A163"/>
-    <mergeCell ref="A127:A146"/>
     <mergeCell ref="A110:A125"/>
     <mergeCell ref="A94:A108"/>
     <mergeCell ref="A2:A16"/>
@@ -39410,6 +39450,11 @@
     <mergeCell ref="A36:A50"/>
     <mergeCell ref="A52:A68"/>
     <mergeCell ref="A70:A92"/>
+    <mergeCell ref="A197:A211"/>
+    <mergeCell ref="A181:A195"/>
+    <mergeCell ref="A165:A179"/>
+    <mergeCell ref="A148:A163"/>
+    <mergeCell ref="A127:A146"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43354,10 +43399,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D31B6-BD14-4EA0-BC45-97C235EBCC6E}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -44257,7 +44302,7 @@
         <v>3204</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+    <row r="49" spans="1:14" s="12" customFormat="1" ht="50.1" customHeight="1">
       <c r="A49" s="226"/>
       <c r="B49" s="198"/>
       <c r="C49" s="198"/>
@@ -44269,7 +44314,7 @@
         <v>3205</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
+    <row r="50" spans="1:14" s="12" customFormat="1" ht="35.1" customHeight="1">
       <c r="A50" s="226"/>
       <c r="B50" s="179" t="s">
         <v>21</v>
@@ -44289,7 +44334,7 @@
       <c r="G50" s="171"/>
       <c r="H50" s="171"/>
     </row>
-    <row r="51" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+    <row r="51" spans="1:14" s="12" customFormat="1" ht="50.1" customHeight="1">
       <c r="A51" s="226"/>
       <c r="B51" s="198" t="s">
         <v>3206</v>
@@ -44303,7 +44348,7 @@
       <c r="G51" s="198"/>
       <c r="H51" s="198"/>
     </row>
-    <row r="52" spans="1:8" s="12" customFormat="1" ht="49.9" customHeight="1">
+    <row r="52" spans="1:14" s="12" customFormat="1" ht="49.9" customHeight="1">
       <c r="A52" s="227"/>
       <c r="B52" s="198" t="s">
         <v>2912</v>
@@ -44314,6 +44359,129 @@
       <c r="F52" s="198"/>
       <c r="G52" s="198"/>
       <c r="H52" s="198"/>
+    </row>
+    <row r="53" spans="1:14" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A53" s="195" t="s">
+        <v>802</v>
+      </c>
+      <c r="B53" s="197" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="196" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="196" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="196" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="196" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="196" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="196" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A54" s="193"/>
+      <c r="B54" s="172"/>
+      <c r="C54" s="173"/>
+      <c r="D54" s="174"/>
+      <c r="E54" s="171"/>
+      <c r="F54" s="171"/>
+      <c r="G54" s="194" t="s">
+        <v>89</v>
+      </c>
+      <c r="H54" s="194" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A55" s="193"/>
+      <c r="B55" s="198"/>
+      <c r="C55" s="198"/>
+      <c r="D55" s="198"/>
+      <c r="E55" s="198"/>
+      <c r="F55" s="198"/>
+      <c r="G55" s="198" t="s">
+        <v>3208</v>
+      </c>
+      <c r="H55" s="198" t="s">
+        <v>3087</v>
+      </c>
+      <c r="N55" s="189"/>
+    </row>
+    <row r="56" spans="1:14" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A56" s="193"/>
+      <c r="B56" s="198"/>
+      <c r="C56" s="198"/>
+      <c r="D56" s="198"/>
+      <c r="E56" s="198"/>
+      <c r="F56" s="198"/>
+      <c r="G56" s="198" t="s">
+        <v>3209</v>
+      </c>
+      <c r="H56" s="198" t="s">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A57" s="193"/>
+      <c r="B57" s="179" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="194" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="194" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="194" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="194" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" s="194" t="s">
+        <v>30</v>
+      </c>
+      <c r="H57" s="194" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A58" s="193"/>
+      <c r="B58" s="198" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C58" s="198"/>
+      <c r="D58" s="198"/>
+      <c r="E58" s="198"/>
+      <c r="F58" s="198" t="s">
+        <v>3212</v>
+      </c>
+      <c r="G58" s="198" t="s">
+        <v>3213</v>
+      </c>
+      <c r="H58" s="198" t="s">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A59" s="193"/>
+      <c r="B59" s="198"/>
+      <c r="C59" s="198"/>
+      <c r="D59" s="198"/>
+      <c r="E59" s="198"/>
+      <c r="F59" s="198"/>
+      <c r="G59" s="198" t="s">
+        <v>3215</v>
+      </c>
+      <c r="H59" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/박진형 일정.xlsx
+++ b/박진형 일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028A70A2-298B-424E-8C51-3563F3D3FE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1005AFE-9A9A-4F4B-8B69-18D523C843F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23755,12 +23755,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A58:A73"/>
-    <mergeCell ref="A107:A124"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A75:A89"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="A38:A56"/>
     <mergeCell ref="A126:A141"/>
@@ -23768,6 +23762,12 @@
     <mergeCell ref="A196:A210"/>
     <mergeCell ref="A180:A194"/>
     <mergeCell ref="A143:A159"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A58:A73"/>
+    <mergeCell ref="A107:A124"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A75:A89"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27467,6 +27467,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A187:A204"/>
+    <mergeCell ref="A171:A185"/>
+    <mergeCell ref="A155:A169"/>
+    <mergeCell ref="A139:A153"/>
+    <mergeCell ref="A123:A137"/>
     <mergeCell ref="A104:A121"/>
     <mergeCell ref="A88:A102"/>
     <mergeCell ref="A2:A16"/>
@@ -27474,11 +27479,6 @@
     <mergeCell ref="A34:A51"/>
     <mergeCell ref="A53:A70"/>
     <mergeCell ref="A72:A86"/>
-    <mergeCell ref="A187:A204"/>
-    <mergeCell ref="A171:A185"/>
-    <mergeCell ref="A155:A169"/>
-    <mergeCell ref="A139:A153"/>
-    <mergeCell ref="A123:A137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39443,6 +39443,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A197:A211"/>
+    <mergeCell ref="A181:A195"/>
+    <mergeCell ref="A165:A179"/>
+    <mergeCell ref="A148:A163"/>
+    <mergeCell ref="A127:A146"/>
     <mergeCell ref="A110:A125"/>
     <mergeCell ref="A94:A108"/>
     <mergeCell ref="A2:A16"/>
@@ -39450,11 +39455,6 @@
     <mergeCell ref="A36:A50"/>
     <mergeCell ref="A52:A68"/>
     <mergeCell ref="A70:A92"/>
-    <mergeCell ref="A197:A211"/>
-    <mergeCell ref="A181:A195"/>
-    <mergeCell ref="A165:A179"/>
-    <mergeCell ref="A148:A163"/>
-    <mergeCell ref="A127:A146"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43401,8 +43401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D31B6-BD14-4EA0-BC45-97C235EBCC6E}">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>

--- a/박진형 일정.xlsx
+++ b/박진형 일정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1005AFE-9A9A-4F4B-8B69-18D523C843F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB45DD9A-A793-4643-9200-3E231994605C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="2430" windowWidth="21600" windowHeight="11385" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="15년" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6549" uniqueCount="3216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6576" uniqueCount="3228">
   <si>
     <t>6</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -14719,6 +14719,65 @@
   <si>
     <t>오스테리아밀즈 - 월정교 -
 한화리조트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선두구동 주민센터 -
+대우아파트 - 동래롯데백화점-
+21시 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산 샘플, 스프레이 가져가기
+21시반 에어부산 김포-&gt;김해
+7시 루체브릿지 발산 원당곱창</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해운대 암소갈비 실패</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상암 U+ 통합아키 철수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기장 일등가 오리불고기 -
+힐튼 북카페 - 장전동 -
+농가의 하루 - 대우아파트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10시 안평노인건강센터 할머니 - 선두구동주민센터
+- 대우아파트-서면롯데백화점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강신구 형님 교정과 오픈
+LG 에너지솔루션 투입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과학기술인으뜸적금 가입하기
+50만원. 0.3% 청년우대 확인
+IRP도 25만..?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인화원 MVP교육</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12시30분 헤어로맨스 사가정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 20시 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>송추가마골 인어반 영등포점
+저녁 회식</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -23755,6 +23814,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A58:A73"/>
+    <mergeCell ref="A107:A124"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A75:A89"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="A38:A56"/>
     <mergeCell ref="A126:A141"/>
@@ -23762,12 +23827,6 @@
     <mergeCell ref="A196:A210"/>
     <mergeCell ref="A180:A194"/>
     <mergeCell ref="A143:A159"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A58:A73"/>
-    <mergeCell ref="A107:A124"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A75:A89"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27467,11 +27526,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A187:A204"/>
-    <mergeCell ref="A171:A185"/>
-    <mergeCell ref="A155:A169"/>
-    <mergeCell ref="A139:A153"/>
-    <mergeCell ref="A123:A137"/>
     <mergeCell ref="A104:A121"/>
     <mergeCell ref="A88:A102"/>
     <mergeCell ref="A2:A16"/>
@@ -27479,6 +27533,11 @@
     <mergeCell ref="A34:A51"/>
     <mergeCell ref="A53:A70"/>
     <mergeCell ref="A72:A86"/>
+    <mergeCell ref="A187:A204"/>
+    <mergeCell ref="A171:A185"/>
+    <mergeCell ref="A155:A169"/>
+    <mergeCell ref="A139:A153"/>
+    <mergeCell ref="A123:A137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39443,11 +39502,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A197:A211"/>
-    <mergeCell ref="A181:A195"/>
-    <mergeCell ref="A165:A179"/>
-    <mergeCell ref="A148:A163"/>
-    <mergeCell ref="A127:A146"/>
     <mergeCell ref="A110:A125"/>
     <mergeCell ref="A94:A108"/>
     <mergeCell ref="A2:A16"/>
@@ -39455,6 +39509,11 @@
     <mergeCell ref="A36:A50"/>
     <mergeCell ref="A52:A68"/>
     <mergeCell ref="A70:A92"/>
+    <mergeCell ref="A197:A211"/>
+    <mergeCell ref="A181:A195"/>
+    <mergeCell ref="A165:A179"/>
+    <mergeCell ref="A148:A163"/>
+    <mergeCell ref="A127:A146"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39465,7 +39524,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66119176-C675-41DF-B585-A27F2631EBEC}">
   <dimension ref="A1:S210"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView topLeftCell="A190" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
@@ -43399,10 +43460,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D31B6-BD14-4EA0-BC45-97C235EBCC6E}">
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -44482,6 +44543,120 @@
         <v>3215</v>
       </c>
       <c r="H59" s="198"/>
+    </row>
+    <row r="60" spans="1:14" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A60" s="193"/>
+      <c r="B60" s="179" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="194" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="194" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" s="194" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="194" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="194" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="194" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A61" s="193"/>
+      <c r="B61" s="198" t="s">
+        <v>3216</v>
+      </c>
+      <c r="C61" s="198"/>
+      <c r="D61" s="198"/>
+      <c r="E61" s="198"/>
+      <c r="F61" s="198"/>
+      <c r="G61" s="198" t="s">
+        <v>3217</v>
+      </c>
+      <c r="H61" s="198" t="s">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A62" s="193"/>
+      <c r="B62" s="198"/>
+      <c r="C62" s="198"/>
+      <c r="D62" s="198"/>
+      <c r="E62" s="198"/>
+      <c r="F62" s="198"/>
+      <c r="G62" s="198" t="s">
+        <v>3219</v>
+      </c>
+      <c r="H62" s="198" t="s">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A63" s="193"/>
+      <c r="B63" s="179" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="194" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="194" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="194" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="194" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="194" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" s="194" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A64" s="193"/>
+      <c r="B64" s="198" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C64" s="198" t="s">
+        <v>3222</v>
+      </c>
+      <c r="D64" s="198" t="s">
+        <v>3223</v>
+      </c>
+      <c r="E64" s="198" t="s">
+        <v>3224</v>
+      </c>
+      <c r="F64" s="198" t="s">
+        <v>3224</v>
+      </c>
+      <c r="G64" s="198"/>
+      <c r="H64" s="198" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A65" s="193"/>
+      <c r="B65" s="198" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C65" s="198"/>
+      <c r="D65" s="198" t="s">
+        <v>3227</v>
+      </c>
+      <c r="E65" s="198"/>
+      <c r="F65" s="198"/>
+      <c r="G65" s="198"/>
+      <c r="H65" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/박진형 일정.xlsx
+++ b/박진형 일정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB45DD9A-A793-4643-9200-3E231994605C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81659F83-FC11-4449-B301-FD69A228DC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="2430" windowWidth="21600" windowHeight="11385" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="15년" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6576" uniqueCount="3228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6595" uniqueCount="3232">
   <si>
     <t>6</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -14778,6 +14778,27 @@
   <si>
     <t>송추가마골 인어반 영등포점
 저녁 회식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10시~ TCT 개발언어 시험</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12시반 에어부산 김포-&gt;김해
+3시반 베이비파스텔 동래금정
+박한솔 돌사진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12시 느루 한정식 -
+파스쿠찌 부산남산점 -
+롯데백화점 동래점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선두구동 주민센터
+- 장전동 집</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -23814,12 +23835,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A58:A73"/>
-    <mergeCell ref="A107:A124"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A75:A89"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="A38:A56"/>
     <mergeCell ref="A126:A141"/>
@@ -23827,6 +23842,12 @@
     <mergeCell ref="A196:A210"/>
     <mergeCell ref="A180:A194"/>
     <mergeCell ref="A143:A159"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A58:A73"/>
+    <mergeCell ref="A107:A124"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A75:A89"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27526,6 +27547,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A187:A204"/>
+    <mergeCell ref="A171:A185"/>
+    <mergeCell ref="A155:A169"/>
+    <mergeCell ref="A139:A153"/>
+    <mergeCell ref="A123:A137"/>
     <mergeCell ref="A104:A121"/>
     <mergeCell ref="A88:A102"/>
     <mergeCell ref="A2:A16"/>
@@ -27533,11 +27559,6 @@
     <mergeCell ref="A34:A51"/>
     <mergeCell ref="A53:A70"/>
     <mergeCell ref="A72:A86"/>
-    <mergeCell ref="A187:A204"/>
-    <mergeCell ref="A171:A185"/>
-    <mergeCell ref="A155:A169"/>
-    <mergeCell ref="A139:A153"/>
-    <mergeCell ref="A123:A137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39502,6 +39523,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A197:A211"/>
+    <mergeCell ref="A181:A195"/>
+    <mergeCell ref="A165:A179"/>
+    <mergeCell ref="A148:A163"/>
+    <mergeCell ref="A127:A146"/>
     <mergeCell ref="A110:A125"/>
     <mergeCell ref="A94:A108"/>
     <mergeCell ref="A2:A16"/>
@@ -39509,11 +39535,6 @@
     <mergeCell ref="A36:A50"/>
     <mergeCell ref="A52:A68"/>
     <mergeCell ref="A70:A92"/>
-    <mergeCell ref="A197:A211"/>
-    <mergeCell ref="A181:A195"/>
-    <mergeCell ref="A165:A179"/>
-    <mergeCell ref="A148:A163"/>
-    <mergeCell ref="A127:A146"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43460,10 +43481,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D31B6-BD14-4EA0-BC45-97C235EBCC6E}">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -44448,7 +44469,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" s="12" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A54" s="193"/>
+      <c r="A54" s="225"/>
       <c r="B54" s="172"/>
       <c r="C54" s="173"/>
       <c r="D54" s="174"/>
@@ -44462,7 +44483,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A55" s="193"/>
+      <c r="A55" s="226"/>
       <c r="B55" s="198"/>
       <c r="C55" s="198"/>
       <c r="D55" s="198"/>
@@ -44477,7 +44498,7 @@
       <c r="N55" s="189"/>
     </row>
     <row r="56" spans="1:14" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A56" s="193"/>
+      <c r="A56" s="226"/>
       <c r="B56" s="198"/>
       <c r="C56" s="198"/>
       <c r="D56" s="198"/>
@@ -44491,7 +44512,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" s="12" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A57" s="193"/>
+      <c r="A57" s="226"/>
       <c r="B57" s="179" t="s">
         <v>27</v>
       </c>
@@ -44515,7 +44536,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A58" s="193"/>
+      <c r="A58" s="226"/>
       <c r="B58" s="198" t="s">
         <v>3211</v>
       </c>
@@ -44533,7 +44554,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A59" s="193"/>
+      <c r="A59" s="226"/>
       <c r="B59" s="198"/>
       <c r="C59" s="198"/>
       <c r="D59" s="198"/>
@@ -44545,7 +44566,7 @@
       <c r="H59" s="198"/>
     </row>
     <row r="60" spans="1:14" s="12" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A60" s="193"/>
+      <c r="A60" s="226"/>
       <c r="B60" s="179" t="s">
         <v>32</v>
       </c>
@@ -44569,7 +44590,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A61" s="193"/>
+      <c r="A61" s="226"/>
       <c r="B61" s="198" t="s">
         <v>3216</v>
       </c>
@@ -44585,7 +44606,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A62" s="193"/>
+      <c r="A62" s="226"/>
       <c r="B62" s="198"/>
       <c r="C62" s="198"/>
       <c r="D62" s="198"/>
@@ -44599,7 +44620,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" s="12" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A63" s="193"/>
+      <c r="A63" s="226"/>
       <c r="B63" s="179" t="s">
         <v>11</v>
       </c>
@@ -44623,7 +44644,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A64" s="193"/>
+      <c r="A64" s="226"/>
       <c r="B64" s="198" t="s">
         <v>3221</v>
       </c>
@@ -44645,7 +44666,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A65" s="193"/>
+      <c r="A65" s="226"/>
       <c r="B65" s="198" t="s">
         <v>3226</v>
       </c>
@@ -44658,11 +44679,90 @@
       <c r="G65" s="198"/>
       <c r="H65" s="198"/>
     </row>
+    <row r="66" spans="1:8" s="12" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A66" s="226"/>
+      <c r="B66" s="179" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="194" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="194" t="s">
+        <v>859</v>
+      </c>
+      <c r="E66" s="194" t="s">
+        <v>860</v>
+      </c>
+      <c r="F66" s="194" t="s">
+        <v>861</v>
+      </c>
+      <c r="G66" s="194" t="s">
+        <v>862</v>
+      </c>
+      <c r="H66" s="194" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A67" s="226"/>
+      <c r="B67" s="198"/>
+      <c r="C67" s="198"/>
+      <c r="D67" s="198"/>
+      <c r="E67" s="198"/>
+      <c r="F67" s="198" t="s">
+        <v>3228</v>
+      </c>
+      <c r="G67" s="198" t="s">
+        <v>3229</v>
+      </c>
+      <c r="H67" s="198" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A68" s="227"/>
+      <c r="B68" s="198"/>
+      <c r="C68" s="198"/>
+      <c r="D68" s="198"/>
+      <c r="E68" s="198"/>
+      <c r="F68" s="198"/>
+      <c r="G68" s="198" t="s">
+        <v>3231</v>
+      </c>
+      <c r="H68" s="198"/>
+    </row>
+    <row r="69" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A69" s="195" t="s">
+        <v>803</v>
+      </c>
+      <c r="B69" s="197" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="196" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="196" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="196" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="196" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="196" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="196" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="A21:A35"/>
     <mergeCell ref="A37:A52"/>
+    <mergeCell ref="A54:A68"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/박진형 일정.xlsx
+++ b/박진형 일정.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81659F83-FC11-4449-B301-FD69A228DC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A094F2F6-0AA9-4A5B-81E6-489B06ECE201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6595" uniqueCount="3232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6622" uniqueCount="3247">
   <si>
     <t>6</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -14799,6 +14799,83 @@
   <si>
     <t>선두구동 주민센터
 - 장전동 집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 (어린이날)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과학기술인공제회 적금 입금
+고대치기공, 지산고 회비 입금
+선두구동 주민센터 -</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 송성윤
+반샤쿠 - 꼬지사께 영등포점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15시 헌혈의집 영등포센터
+5시 경기떡집 환불됨
+2색이티, 완두시루떡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10시30분 두실 이현정 머리
+14시20분 베이비파스텔
+15시 꽃보다 부산대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 금정산성 다목적광장
+조선화, 배건원 - 가야밀면
+9시반 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18시반 에어부산 김포-&gt;김해
+21시 배건원, 신용두
+호맥 구서쌍용예가점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5시 우정갈비 어버이날
+파스쿠찌 부산남산점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 (부처님 오신날)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유정1995 카페 -
+저녁 마파람해물찜 구서본점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8시 강남 김민경
+가르고뜨 - 이케맨 이자카야</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 7시 영등포 김정모, 송성윤
+초장집 - 리춘시장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21시반 에어부산 김포-&gt;김해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11시 김경회 결혼
+엑소21컨벤션 3층
+이현정, 이재관</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 신세계 백화점 센텀시티점</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -43481,10 +43558,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D31B6-BD14-4EA0-BC45-97C235EBCC6E}">
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -44755,6 +44832,124 @@
       </c>
       <c r="H69" s="196" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A70" s="193"/>
+      <c r="B70" s="123">
+        <v>1</v>
+      </c>
+      <c r="C70" s="69">
+        <v>2</v>
+      </c>
+      <c r="D70" s="70" t="s">
+        <v>799</v>
+      </c>
+      <c r="E70" s="194" t="s">
+        <v>802</v>
+      </c>
+      <c r="F70" s="179" t="s">
+        <v>3232</v>
+      </c>
+      <c r="G70" s="194" t="s">
+        <v>0</v>
+      </c>
+      <c r="H70" s="194" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A71" s="193"/>
+      <c r="B71" s="198" t="s">
+        <v>3233</v>
+      </c>
+      <c r="C71" s="198" t="s">
+        <v>3234</v>
+      </c>
+      <c r="D71" s="198"/>
+      <c r="E71" s="198"/>
+      <c r="F71" s="198"/>
+      <c r="G71" s="198" t="s">
+        <v>3235</v>
+      </c>
+      <c r="H71" s="198" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A72" s="193"/>
+      <c r="B72" s="198" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C72" s="198"/>
+      <c r="D72" s="198"/>
+      <c r="E72" s="198"/>
+      <c r="F72" s="198"/>
+      <c r="G72" s="198" t="s">
+        <v>3238</v>
+      </c>
+      <c r="H72" s="198" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A73" s="193"/>
+      <c r="B73" s="179" t="s">
+        <v>3240</v>
+      </c>
+      <c r="C73" s="194" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" s="194" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73" s="194" t="s">
+        <v>33</v>
+      </c>
+      <c r="F73" s="194" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" s="194" t="s">
+        <v>35</v>
+      </c>
+      <c r="H73" s="194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A74" s="193"/>
+      <c r="B74" s="198" t="s">
+        <v>3241</v>
+      </c>
+      <c r="C74" s="198" t="s">
+        <v>3242</v>
+      </c>
+      <c r="D74" s="198" t="s">
+        <v>3243</v>
+      </c>
+      <c r="E74" s="198"/>
+      <c r="F74" s="198" t="s">
+        <v>3066</v>
+      </c>
+      <c r="G74" s="198" t="s">
+        <v>3244</v>
+      </c>
+      <c r="H74" s="198" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A75" s="193"/>
+      <c r="B75" s="198" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C75" s="198"/>
+      <c r="D75" s="198"/>
+      <c r="E75" s="198"/>
+      <c r="F75" s="198"/>
+      <c r="G75" s="198"/>
+      <c r="H75" s="198" t="s">
+        <v>3246</v>
       </c>
     </row>
   </sheetData>

--- a/박진형 일정.xlsx
+++ b/박진형 일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A094F2F6-0AA9-4A5B-81E6-489B06ECE201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07712F1D-97B1-4AE1-9D76-BFEA6BB98261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6622" uniqueCount="3247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6635" uniqueCount="3253">
   <si>
     <t>6</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -14876,6 +14876,37 @@
   </si>
   <si>
     <t>- 신세계 백화점 센텀시티점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 장모님 생신잔치
+12시 아난티 힐튼 다모임
+19시35분 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장모님 생신
+(음력 4/16)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤석원 생일
+저녁 icsb 합정
+미미본관 - 보그노래연습장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10시반 에어부산 김포-&gt;김해
+장전집 한솔 - 대우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김세훈, 한지연, 이현호, 최재혁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11시30분 박한솔 영유아검진
+금정소아청소년과의원</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -43558,10 +43589,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D31B6-BD14-4EA0-BC45-97C235EBCC6E}">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -44951,6 +44982,62 @@
       <c r="H75" s="198" t="s">
         <v>3246</v>
       </c>
+    </row>
+    <row r="76" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A76" s="193"/>
+      <c r="B76" s="179" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="194" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="194" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" s="194" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="194" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="194" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="194" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A77" s="193"/>
+      <c r="B77" s="198" t="s">
+        <v>3247</v>
+      </c>
+      <c r="C77" s="198" t="s">
+        <v>3248</v>
+      </c>
+      <c r="D77" s="198" t="s">
+        <v>3249</v>
+      </c>
+      <c r="E77" s="198"/>
+      <c r="F77" s="198"/>
+      <c r="G77" s="198"/>
+      <c r="H77" s="198" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A78" s="193"/>
+      <c r="B78" s="198"/>
+      <c r="C78" s="198"/>
+      <c r="D78" s="198" t="s">
+        <v>3251</v>
+      </c>
+      <c r="E78" s="198"/>
+      <c r="F78" s="198" t="s">
+        <v>3252</v>
+      </c>
+      <c r="G78" s="198"/>
+      <c r="H78" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/박진형 일정.xlsx
+++ b/박진형 일정.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07712F1D-97B1-4AE1-9D76-BFEA6BB98261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7B1B43-10E1-41A2-B91D-78FE2F207F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6635" uniqueCount="3253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6673" uniqueCount="3266">
   <si>
     <t>6</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -14907,6 +14907,66 @@
   <si>
     <t>11시30분 박한솔 영유아검진
 금정소아청소년과의원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조영민 생일
+12시20분 이효림 결혼
+센텀사이언스파크 별관4층</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10시 ybm신촌 COS PRO
+COS PRO 1급 자바 강의 종료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAsP 공부순서
+가이드 장 요약 - 한권 끝내기 이론 - 공식 문제집 풀이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21시30분 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자진근로반 창반행사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7시 영등포 박진열, 류승진
+초장집 - 리춘시장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 SeeKU 모임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과학기술인공제회 적금 입금
+고대치기공, 지산고 회비 입금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬크림 가져가기, 부가부 세척
+20시30분 에어부산 김포-&gt;김해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>멘토즈 부산부곡점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10시 해운대공고 DAsP 시험
+롯데시네마 오투 범죄도시2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월 챔프스터디 연장하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCT 주스킬 공부</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -23943,6 +24003,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A58:A73"/>
+    <mergeCell ref="A107:A124"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A75:A89"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="A38:A56"/>
     <mergeCell ref="A126:A141"/>
@@ -23950,12 +24016,6 @@
     <mergeCell ref="A196:A210"/>
     <mergeCell ref="A180:A194"/>
     <mergeCell ref="A143:A159"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A58:A73"/>
-    <mergeCell ref="A107:A124"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A75:A89"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27655,11 +27715,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A187:A204"/>
-    <mergeCell ref="A171:A185"/>
-    <mergeCell ref="A155:A169"/>
-    <mergeCell ref="A139:A153"/>
-    <mergeCell ref="A123:A137"/>
     <mergeCell ref="A104:A121"/>
     <mergeCell ref="A88:A102"/>
     <mergeCell ref="A2:A16"/>
@@ -27667,6 +27722,11 @@
     <mergeCell ref="A34:A51"/>
     <mergeCell ref="A53:A70"/>
     <mergeCell ref="A72:A86"/>
+    <mergeCell ref="A187:A204"/>
+    <mergeCell ref="A171:A185"/>
+    <mergeCell ref="A155:A169"/>
+    <mergeCell ref="A139:A153"/>
+    <mergeCell ref="A123:A137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39631,11 +39691,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A197:A211"/>
-    <mergeCell ref="A181:A195"/>
-    <mergeCell ref="A165:A179"/>
-    <mergeCell ref="A148:A163"/>
-    <mergeCell ref="A127:A146"/>
     <mergeCell ref="A110:A125"/>
     <mergeCell ref="A94:A108"/>
     <mergeCell ref="A2:A16"/>
@@ -39643,6 +39698,11 @@
     <mergeCell ref="A36:A50"/>
     <mergeCell ref="A52:A68"/>
     <mergeCell ref="A70:A92"/>
+    <mergeCell ref="A197:A211"/>
+    <mergeCell ref="A181:A195"/>
+    <mergeCell ref="A165:A179"/>
+    <mergeCell ref="A148:A163"/>
+    <mergeCell ref="A127:A146"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43589,10 +43649,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D31B6-BD14-4EA0-BC45-97C235EBCC6E}">
-  <dimension ref="A1:N78"/>
+  <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -44866,7 +44926,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A70" s="193"/>
+      <c r="A70" s="225"/>
       <c r="B70" s="123">
         <v>1</v>
       </c>
@@ -44890,7 +44950,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A71" s="193"/>
+      <c r="A71" s="226"/>
       <c r="B71" s="198" t="s">
         <v>3233</v>
       </c>
@@ -44908,7 +44968,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A72" s="193"/>
+      <c r="A72" s="226"/>
       <c r="B72" s="198" t="s">
         <v>3237</v>
       </c>
@@ -44924,7 +44984,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A73" s="193"/>
+      <c r="A73" s="226"/>
       <c r="B73" s="179" t="s">
         <v>3240</v>
       </c>
@@ -44948,7 +45008,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A74" s="193"/>
+      <c r="A74" s="226"/>
       <c r="B74" s="198" t="s">
         <v>3241</v>
       </c>
@@ -44970,7 +45030,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A75" s="193"/>
+      <c r="A75" s="226"/>
       <c r="B75" s="198" t="s">
         <v>2912</v>
       </c>
@@ -44984,7 +45044,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A76" s="193"/>
+      <c r="A76" s="226"/>
       <c r="B76" s="179" t="s">
         <v>9</v>
       </c>
@@ -45008,7 +45068,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A77" s="193"/>
+      <c r="A77" s="226"/>
       <c r="B77" s="198" t="s">
         <v>3247</v>
       </c>
@@ -45026,7 +45086,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A78" s="193"/>
+      <c r="A78" s="226"/>
       <c r="B78" s="198"/>
       <c r="C78" s="198"/>
       <c r="D78" s="198" t="s">
@@ -45039,12 +45099,189 @@
       <c r="G78" s="198"/>
       <c r="H78" s="198"/>
     </row>
+    <row r="79" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A79" s="226"/>
+      <c r="B79" s="179" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="194" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="194" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="194" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" s="194" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" s="194" t="s">
+        <v>21</v>
+      </c>
+      <c r="H79" s="194" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A80" s="226"/>
+      <c r="B80" s="198" t="s">
+        <v>3253</v>
+      </c>
+      <c r="C80" s="198"/>
+      <c r="D80" s="198"/>
+      <c r="E80" s="198" t="s">
+        <v>2149</v>
+      </c>
+      <c r="F80" s="198"/>
+      <c r="G80" s="198" t="s">
+        <v>3254</v>
+      </c>
+      <c r="H80" s="198" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A81" s="226"/>
+      <c r="B81" s="198" t="s">
+        <v>3256</v>
+      </c>
+      <c r="C81" s="198"/>
+      <c r="D81" s="198"/>
+      <c r="E81" s="198" t="s">
+        <v>3224</v>
+      </c>
+      <c r="F81" s="198"/>
+      <c r="G81" s="198" t="s">
+        <v>2883</v>
+      </c>
+      <c r="H81" s="198" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A82" s="226"/>
+      <c r="B82" s="179" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="194" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" s="194" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82" s="171"/>
+      <c r="F82" s="171"/>
+      <c r="G82" s="171"/>
+      <c r="H82" s="171"/>
+    </row>
+    <row r="83" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A83" s="226"/>
+      <c r="B83" s="198"/>
+      <c r="C83" s="198" t="s">
+        <v>3258</v>
+      </c>
+      <c r="D83" s="198" t="s">
+        <v>3259</v>
+      </c>
+      <c r="E83" s="198"/>
+      <c r="F83" s="198"/>
+      <c r="G83" s="198"/>
+      <c r="H83" s="198"/>
+    </row>
+    <row r="84" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A84" s="227"/>
+      <c r="B84" s="198"/>
+      <c r="C84" s="198"/>
+      <c r="D84" s="198"/>
+      <c r="E84" s="198"/>
+      <c r="F84" s="198"/>
+      <c r="G84" s="198"/>
+      <c r="H84" s="198"/>
+    </row>
+    <row r="85" spans="1:8" s="12" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A85" s="195" t="s">
+        <v>804</v>
+      </c>
+      <c r="B85" s="197" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="196" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="196" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="196" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" s="196" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85" s="196" t="s">
+        <v>6</v>
+      </c>
+      <c r="H85" s="196" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A86" s="193"/>
+      <c r="B86" s="172"/>
+      <c r="C86" s="173"/>
+      <c r="D86" s="174"/>
+      <c r="E86" s="179" t="s">
+        <v>797</v>
+      </c>
+      <c r="F86" s="194" t="s">
+        <v>798</v>
+      </c>
+      <c r="G86" s="194" t="s">
+        <v>27</v>
+      </c>
+      <c r="H86" s="194" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A87" s="193"/>
+      <c r="B87" s="198"/>
+      <c r="C87" s="198"/>
+      <c r="D87" s="198"/>
+      <c r="E87" s="198" t="s">
+        <v>3260</v>
+      </c>
+      <c r="F87" s="198" t="s">
+        <v>3261</v>
+      </c>
+      <c r="G87" s="198" t="s">
+        <v>3262</v>
+      </c>
+      <c r="H87" s="198" t="s">
+        <v>3263</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A88" s="193"/>
+      <c r="B88" s="198"/>
+      <c r="C88" s="198"/>
+      <c r="D88" s="198"/>
+      <c r="E88" s="198" t="s">
+        <v>3264</v>
+      </c>
+      <c r="F88" s="198"/>
+      <c r="G88" s="198"/>
+      <c r="H88" s="198" t="s">
+        <v>3265</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="A21:A35"/>
     <mergeCell ref="A37:A52"/>
     <mergeCell ref="A54:A68"/>
+    <mergeCell ref="A70:A84"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/박진형 일정.xlsx
+++ b/박진형 일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7B1B43-10E1-41A2-B91D-78FE2F207F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1D07ED-B83A-4943-8D35-879261EA74DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6673" uniqueCount="3266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6687" uniqueCount="3273">
   <si>
     <t>6</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -14967,6 +14967,42 @@
   </si>
   <si>
     <t>TCT 주스킬 공부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 동래 세연정
+동래롯데백화점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동래롯데백화점-본가벌나무복집
+스토케 트립트랩 조립
+21시 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7시 신논현 류재열, 송성윤, 왕건
+닭갈비전 - 제주달 - 정든집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 영등포 이유진, 최상희
+반샤쿠 - 영등포횟집 - 포차천국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/10 서윤식
+DAP 강의개설공지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동래롯데백화점 -
+서면롯데백화점 - 대우아파트 -
+장전동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21시30분 에어부산 김포-&gt;김해</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -24003,12 +24039,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A58:A73"/>
-    <mergeCell ref="A107:A124"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A75:A89"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="A38:A56"/>
     <mergeCell ref="A126:A141"/>
@@ -24016,6 +24046,12 @@
     <mergeCell ref="A196:A210"/>
     <mergeCell ref="A180:A194"/>
     <mergeCell ref="A143:A159"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A58:A73"/>
+    <mergeCell ref="A107:A124"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A75:A89"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27715,6 +27751,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A187:A204"/>
+    <mergeCell ref="A171:A185"/>
+    <mergeCell ref="A155:A169"/>
+    <mergeCell ref="A139:A153"/>
+    <mergeCell ref="A123:A137"/>
     <mergeCell ref="A104:A121"/>
     <mergeCell ref="A88:A102"/>
     <mergeCell ref="A2:A16"/>
@@ -27722,11 +27763,6 @@
     <mergeCell ref="A34:A51"/>
     <mergeCell ref="A53:A70"/>
     <mergeCell ref="A72:A86"/>
-    <mergeCell ref="A187:A204"/>
-    <mergeCell ref="A171:A185"/>
-    <mergeCell ref="A155:A169"/>
-    <mergeCell ref="A139:A153"/>
-    <mergeCell ref="A123:A137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39691,6 +39727,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A197:A211"/>
+    <mergeCell ref="A181:A195"/>
+    <mergeCell ref="A165:A179"/>
+    <mergeCell ref="A148:A163"/>
+    <mergeCell ref="A127:A146"/>
     <mergeCell ref="A110:A125"/>
     <mergeCell ref="A94:A108"/>
     <mergeCell ref="A2:A16"/>
@@ -39698,11 +39739,6 @@
     <mergeCell ref="A36:A50"/>
     <mergeCell ref="A52:A68"/>
     <mergeCell ref="A70:A92"/>
-    <mergeCell ref="A197:A211"/>
-    <mergeCell ref="A181:A195"/>
-    <mergeCell ref="A165:A179"/>
-    <mergeCell ref="A148:A163"/>
-    <mergeCell ref="A127:A146"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43649,10 +43685,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D31B6-BD14-4EA0-BC45-97C235EBCC6E}">
-  <dimension ref="A1:N88"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A74" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -45274,6 +45310,64 @@
       <c r="H88" s="198" t="s">
         <v>3265</v>
       </c>
+    </row>
+    <row r="89" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A89" s="193"/>
+      <c r="B89" s="179" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" s="179" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D89" s="194" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" s="194" t="s">
+        <v>30</v>
+      </c>
+      <c r="F89" s="194" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" s="194" t="s">
+        <v>32</v>
+      </c>
+      <c r="H89" s="194" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A90" s="193"/>
+      <c r="B90" s="198" t="s">
+        <v>3266</v>
+      </c>
+      <c r="C90" s="198" t="s">
+        <v>3267</v>
+      </c>
+      <c r="D90" s="198" t="s">
+        <v>3268</v>
+      </c>
+      <c r="E90" s="198"/>
+      <c r="F90" s="198" t="s">
+        <v>3269</v>
+      </c>
+      <c r="G90" s="198" t="s">
+        <v>3270</v>
+      </c>
+      <c r="H90" s="198" t="s">
+        <v>3271</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A91" s="193"/>
+      <c r="B91" s="198"/>
+      <c r="C91" s="198"/>
+      <c r="D91" s="198"/>
+      <c r="E91" s="198"/>
+      <c r="F91" s="198"/>
+      <c r="G91" s="198" t="s">
+        <v>3272</v>
+      </c>
+      <c r="H91" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/박진형 일정.xlsx
+++ b/박진형 일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1D07ED-B83A-4943-8D35-879261EA74DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D44FCD-946C-45FB-8F21-DE5B94757974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6687" uniqueCount="3273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6700" uniqueCount="3279">
   <si>
     <t>6</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -15003,6 +15003,35 @@
   </si>
   <si>
     <t>21시30분 에어부산 김포-&gt;김해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨스턴챔버 - 병산저수지 - 대우
+21시30분 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCT - 주스킬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 6시반 영등포 정솔아
+편백집 - 서울포차 -
+돌곶이역 조마루감자탕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고대치기공 MT
+6시 30분 최종보 차
+호수와통나무펜션</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고대치기공 MT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>챔프스터디 출석체크 시작</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -24039,6 +24068,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A58:A73"/>
+    <mergeCell ref="A107:A124"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A75:A89"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="A38:A56"/>
     <mergeCell ref="A126:A141"/>
@@ -24046,12 +24081,6 @@
     <mergeCell ref="A196:A210"/>
     <mergeCell ref="A180:A194"/>
     <mergeCell ref="A143:A159"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A58:A73"/>
-    <mergeCell ref="A107:A124"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A75:A89"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27751,11 +27780,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A187:A204"/>
-    <mergeCell ref="A171:A185"/>
-    <mergeCell ref="A155:A169"/>
-    <mergeCell ref="A139:A153"/>
-    <mergeCell ref="A123:A137"/>
     <mergeCell ref="A104:A121"/>
     <mergeCell ref="A88:A102"/>
     <mergeCell ref="A2:A16"/>
@@ -27763,6 +27787,11 @@
     <mergeCell ref="A34:A51"/>
     <mergeCell ref="A53:A70"/>
     <mergeCell ref="A72:A86"/>
+    <mergeCell ref="A187:A204"/>
+    <mergeCell ref="A171:A185"/>
+    <mergeCell ref="A155:A169"/>
+    <mergeCell ref="A139:A153"/>
+    <mergeCell ref="A123:A137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39727,11 +39756,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A197:A211"/>
-    <mergeCell ref="A181:A195"/>
-    <mergeCell ref="A165:A179"/>
-    <mergeCell ref="A148:A163"/>
-    <mergeCell ref="A127:A146"/>
     <mergeCell ref="A110:A125"/>
     <mergeCell ref="A94:A108"/>
     <mergeCell ref="A2:A16"/>
@@ -39739,6 +39763,11 @@
     <mergeCell ref="A36:A50"/>
     <mergeCell ref="A52:A68"/>
     <mergeCell ref="A70:A92"/>
+    <mergeCell ref="A197:A211"/>
+    <mergeCell ref="A181:A195"/>
+    <mergeCell ref="A165:A179"/>
+    <mergeCell ref="A148:A163"/>
+    <mergeCell ref="A127:A146"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43685,7 +43714,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D31B6-BD14-4EA0-BC45-97C235EBCC6E}">
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A74" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B89" sqref="B89"/>
@@ -45368,6 +45397,62 @@
         <v>3272</v>
       </c>
       <c r="H91" s="198"/>
+    </row>
+    <row r="92" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A92" s="193"/>
+      <c r="B92" s="179" t="s">
+        <v>34</v>
+      </c>
+      <c r="C92" s="194" t="s">
+        <v>35</v>
+      </c>
+      <c r="D92" s="194" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="194" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" s="194" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="194" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" s="194" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A93" s="193"/>
+      <c r="B93" s="198" t="s">
+        <v>3273</v>
+      </c>
+      <c r="C93" s="198"/>
+      <c r="D93" s="198"/>
+      <c r="E93" s="198" t="s">
+        <v>3274</v>
+      </c>
+      <c r="F93" s="198" t="s">
+        <v>3275</v>
+      </c>
+      <c r="G93" s="198" t="s">
+        <v>3276</v>
+      </c>
+      <c r="H93" s="198" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A94" s="193"/>
+      <c r="B94" s="198"/>
+      <c r="C94" s="198"/>
+      <c r="D94" s="198"/>
+      <c r="E94" s="198"/>
+      <c r="F94" s="198"/>
+      <c r="G94" s="198" t="s">
+        <v>3278</v>
+      </c>
+      <c r="H94" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/박진형 일정.xlsx
+++ b/박진형 일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D44FCD-946C-45FB-8F21-DE5B94757974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B485943A-9E85-414C-A091-AE0EBB64EABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6700" uniqueCount="3279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6713" uniqueCount="3284">
   <si>
     <t>6</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -15032,6 +15032,31 @@
   </si>
   <si>
     <t>챔프스터디 출석체크 시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7시30분 희영누나 집들이
+류재열, 송성윤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 EDA팀 정공회
+홍박식당 - 일레븐탭하우스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21시 에어부산 김포-&gt;김해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1시 류미리 결혼 그랜드블랑 -
+범일동 박한솔 돌 반지 -
+베이비파스텔 돌사진 액자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5시 무적스쿨 동래 삼다진족 -
+토리고야 동래점</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -24068,12 +24093,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A58:A73"/>
-    <mergeCell ref="A107:A124"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A75:A89"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="A38:A56"/>
     <mergeCell ref="A126:A141"/>
@@ -24081,6 +24100,12 @@
     <mergeCell ref="A196:A210"/>
     <mergeCell ref="A180:A194"/>
     <mergeCell ref="A143:A159"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A58:A73"/>
+    <mergeCell ref="A107:A124"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A75:A89"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27780,6 +27805,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A187:A204"/>
+    <mergeCell ref="A171:A185"/>
+    <mergeCell ref="A155:A169"/>
+    <mergeCell ref="A139:A153"/>
+    <mergeCell ref="A123:A137"/>
     <mergeCell ref="A104:A121"/>
     <mergeCell ref="A88:A102"/>
     <mergeCell ref="A2:A16"/>
@@ -27787,11 +27817,6 @@
     <mergeCell ref="A34:A51"/>
     <mergeCell ref="A53:A70"/>
     <mergeCell ref="A72:A86"/>
-    <mergeCell ref="A187:A204"/>
-    <mergeCell ref="A171:A185"/>
-    <mergeCell ref="A155:A169"/>
-    <mergeCell ref="A139:A153"/>
-    <mergeCell ref="A123:A137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39756,6 +39781,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A197:A211"/>
+    <mergeCell ref="A181:A195"/>
+    <mergeCell ref="A165:A179"/>
+    <mergeCell ref="A148:A163"/>
+    <mergeCell ref="A127:A146"/>
     <mergeCell ref="A110:A125"/>
     <mergeCell ref="A94:A108"/>
     <mergeCell ref="A2:A16"/>
@@ -39763,11 +39793,6 @@
     <mergeCell ref="A36:A50"/>
     <mergeCell ref="A52:A68"/>
     <mergeCell ref="A70:A92"/>
-    <mergeCell ref="A197:A211"/>
-    <mergeCell ref="A181:A195"/>
-    <mergeCell ref="A165:A179"/>
-    <mergeCell ref="A148:A163"/>
-    <mergeCell ref="A127:A146"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43714,10 +43739,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D31B6-BD14-4EA0-BC45-97C235EBCC6E}">
-  <dimension ref="A1:N94"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -45453,6 +45478,62 @@
         <v>3278</v>
       </c>
       <c r="H94" s="198"/>
+    </row>
+    <row r="95" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A95" s="193"/>
+      <c r="B95" s="179" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="194" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="194" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="194" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" s="194" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" s="194" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" s="194" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A96" s="193"/>
+      <c r="B96" s="198" t="s">
+        <v>3277</v>
+      </c>
+      <c r="C96" s="198" t="s">
+        <v>3279</v>
+      </c>
+      <c r="D96" s="198" t="s">
+        <v>3280</v>
+      </c>
+      <c r="E96" s="198"/>
+      <c r="F96" s="198"/>
+      <c r="G96" s="198" t="s">
+        <v>3281</v>
+      </c>
+      <c r="H96" s="198" t="s">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A97" s="193"/>
+      <c r="B97" s="198"/>
+      <c r="C97" s="198"/>
+      <c r="D97" s="198"/>
+      <c r="E97" s="198"/>
+      <c r="F97" s="198"/>
+      <c r="G97" s="198"/>
+      <c r="H97" s="198" t="s">
+        <v>3283</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/박진형 일정.xlsx
+++ b/박진형 일정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B485943A-9E85-414C-A091-AE0EBB64EABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D70138-599E-4C83-9DF4-657E0D83CF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="3120" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="15년" sheetId="1" r:id="rId1"/>
@@ -24093,6 +24093,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A21:A36"/>
+    <mergeCell ref="A58:A73"/>
+    <mergeCell ref="A107:A124"/>
+    <mergeCell ref="A91:A105"/>
+    <mergeCell ref="A75:A89"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="A38:A56"/>
     <mergeCell ref="A126:A141"/>
@@ -24100,12 +24106,6 @@
     <mergeCell ref="A196:A210"/>
     <mergeCell ref="A180:A194"/>
     <mergeCell ref="A143:A159"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A58:A73"/>
-    <mergeCell ref="A107:A124"/>
-    <mergeCell ref="A91:A105"/>
-    <mergeCell ref="A75:A89"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27805,11 +27805,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A187:A204"/>
-    <mergeCell ref="A171:A185"/>
-    <mergeCell ref="A155:A169"/>
-    <mergeCell ref="A139:A153"/>
-    <mergeCell ref="A123:A137"/>
     <mergeCell ref="A104:A121"/>
     <mergeCell ref="A88:A102"/>
     <mergeCell ref="A2:A16"/>
@@ -27817,6 +27812,11 @@
     <mergeCell ref="A34:A51"/>
     <mergeCell ref="A53:A70"/>
     <mergeCell ref="A72:A86"/>
+    <mergeCell ref="A187:A204"/>
+    <mergeCell ref="A171:A185"/>
+    <mergeCell ref="A155:A169"/>
+    <mergeCell ref="A139:A153"/>
+    <mergeCell ref="A123:A137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39781,11 +39781,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A197:A211"/>
-    <mergeCell ref="A181:A195"/>
-    <mergeCell ref="A165:A179"/>
-    <mergeCell ref="A148:A163"/>
-    <mergeCell ref="A127:A146"/>
     <mergeCell ref="A110:A125"/>
     <mergeCell ref="A94:A108"/>
     <mergeCell ref="A2:A16"/>
@@ -39793,6 +39788,11 @@
     <mergeCell ref="A36:A50"/>
     <mergeCell ref="A52:A68"/>
     <mergeCell ref="A70:A92"/>
+    <mergeCell ref="A197:A211"/>
+    <mergeCell ref="A181:A195"/>
+    <mergeCell ref="A165:A179"/>
+    <mergeCell ref="A148:A163"/>
+    <mergeCell ref="A127:A146"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39803,9 +39803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66119176-C675-41DF-B585-A27F2631EBEC}">
   <dimension ref="A1:S210"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
-    </sheetView>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
@@ -43741,8 +43739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D31B6-BD14-4EA0-BC45-97C235EBCC6E}">
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>

--- a/박진형 일정.xlsx
+++ b/박진형 일정.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dailyStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D70138-599E-4C83-9DF4-657E0D83CF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547BA4D8-2206-4A03-9569-9D721DA6D1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="3120" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="15년" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6713" uniqueCount="3284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6747" uniqueCount="3294">
   <si>
     <t>6</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -15057,6 +15057,60 @@
   <si>
     <t>5시 무적스쿨 동래 삼다진족 -
 토리고야 동래점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10시30분 이현정 머리 예약
+서면 롯데백화점</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오후12시 토르소포맨 진성쌤
+컷+다운펌 10만 5천원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 마곡 icst 디그다 모임
+이주후, 박민지, 금강현, 유창재</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권승미, 방진실, 오지인, 조상혁
+망원 이담쌀롱 - 2차.. 모름..</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10시 웨스틴 조선 부산 셔블
+박한솔 돌잔치
+신세계백화점 센텀시티 - 대우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12시30분 에어부산 김포-&gt;김해
+부산대 더모음파티 - 롯데캐슬 -
+이승헌 집 - 이재관 집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재관 집(양복 돌려줌) -
+서3동 주민센터 -동래롯데백화점
+21시 30분 에어부산 김해-&gt;김포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 팀장님, 박성현 선임님
+마곡 기대만족</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁 7시 송주화 집들이
+구리시 체육관로 124
+참조은동방아파트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10시 신촌 정솔아
+금별맥주 - 코비노래방</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -43737,10 +43791,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527D31B6-BD14-4EA0-BC45-97C235EBCC6E}">
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -45314,7 +45368,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A86" s="193"/>
+      <c r="A86" s="225"/>
       <c r="B86" s="172"/>
       <c r="C86" s="173"/>
       <c r="D86" s="174"/>
@@ -45332,7 +45386,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A87" s="193"/>
+      <c r="A87" s="226"/>
       <c r="B87" s="198"/>
       <c r="C87" s="198"/>
       <c r="D87" s="198"/>
@@ -45350,7 +45404,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A88" s="193"/>
+      <c r="A88" s="226"/>
       <c r="B88" s="198"/>
       <c r="C88" s="198"/>
       <c r="D88" s="198"/>
@@ -45364,7 +45418,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A89" s="193"/>
+      <c r="A89" s="226"/>
       <c r="B89" s="179" t="s">
         <v>29</v>
       </c>
@@ -45388,7 +45442,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A90" s="193"/>
+      <c r="A90" s="226"/>
       <c r="B90" s="198" t="s">
         <v>3266</v>
       </c>
@@ -45410,7 +45464,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A91" s="193"/>
+      <c r="A91" s="226"/>
       <c r="B91" s="198"/>
       <c r="C91" s="198"/>
       <c r="D91" s="198"/>
@@ -45422,7 +45476,7 @@
       <c r="H91" s="198"/>
     </row>
     <row r="92" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A92" s="193"/>
+      <c r="A92" s="226"/>
       <c r="B92" s="179" t="s">
         <v>34</v>
       </c>
@@ -45446,7 +45500,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A93" s="193"/>
+      <c r="A93" s="226"/>
       <c r="B93" s="198" t="s">
         <v>3273</v>
       </c>
@@ -45466,7 +45520,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A94" s="193"/>
+      <c r="A94" s="226"/>
       <c r="B94" s="198"/>
       <c r="C94" s="198"/>
       <c r="D94" s="198"/>
@@ -45478,7 +45532,7 @@
       <c r="H94" s="198"/>
     </row>
     <row r="95" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A95" s="193"/>
+      <c r="A95" s="226"/>
       <c r="B95" s="179" t="s">
         <v>13</v>
       </c>
@@ -45502,7 +45556,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A96" s="193"/>
+      <c r="A96" s="226"/>
       <c r="B96" s="198" t="s">
         <v>3277</v>
       </c>
@@ -45522,7 +45576,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A97" s="193"/>
+      <c r="A97" s="226"/>
       <c r="B97" s="198"/>
       <c r="C97" s="198"/>
       <c r="D97" s="198"/>
@@ -45533,8 +45587,177 @@
         <v>3283</v>
       </c>
     </row>
+    <row r="98" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A98" s="226"/>
+      <c r="B98" s="179" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98" s="194" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="194" t="s">
+        <v>861</v>
+      </c>
+      <c r="E98" s="194" t="s">
+        <v>862</v>
+      </c>
+      <c r="F98" s="194" t="s">
+        <v>863</v>
+      </c>
+      <c r="G98" s="171"/>
+      <c r="H98" s="171"/>
+    </row>
+    <row r="99" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A99" s="226"/>
+      <c r="B99" s="198" t="s">
+        <v>3284</v>
+      </c>
+      <c r="C99" s="198"/>
+      <c r="D99" s="198" t="s">
+        <v>3285</v>
+      </c>
+      <c r="E99" s="198"/>
+      <c r="F99" s="198" t="s">
+        <v>3286</v>
+      </c>
+      <c r="G99" s="198"/>
+      <c r="H99" s="198"/>
+    </row>
+    <row r="100" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A100" s="227"/>
+      <c r="B100" s="198" t="s">
+        <v>3256</v>
+      </c>
+      <c r="C100" s="198"/>
+      <c r="D100" s="198"/>
+      <c r="E100" s="198"/>
+      <c r="F100" s="198" t="s">
+        <v>3287</v>
+      </c>
+      <c r="G100" s="198"/>
+      <c r="H100" s="198"/>
+    </row>
+    <row r="101" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A101" s="195" t="s">
+        <v>729</v>
+      </c>
+      <c r="B101" s="197" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="196" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="196" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="196" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="196" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="196" t="s">
+        <v>6</v>
+      </c>
+      <c r="H101" s="196" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A102" s="193"/>
+      <c r="B102" s="172"/>
+      <c r="C102" s="173"/>
+      <c r="D102" s="174"/>
+      <c r="E102" s="171"/>
+      <c r="F102" s="171"/>
+      <c r="G102" s="194" t="s">
+        <v>89</v>
+      </c>
+      <c r="H102" s="194" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A103" s="193"/>
+      <c r="B103" s="198"/>
+      <c r="C103" s="198"/>
+      <c r="D103" s="198"/>
+      <c r="E103" s="198"/>
+      <c r="F103" s="198"/>
+      <c r="G103" s="198" t="s">
+        <v>3260</v>
+      </c>
+      <c r="H103" s="198" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A104" s="193"/>
+      <c r="B104" s="198"/>
+      <c r="C104" s="198"/>
+      <c r="D104" s="198"/>
+      <c r="E104" s="198"/>
+      <c r="F104" s="198"/>
+      <c r="G104" s="198" t="s">
+        <v>3289</v>
+      </c>
+      <c r="H104" s="198"/>
+    </row>
+    <row r="105" spans="1:8" s="12" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A105" s="193"/>
+      <c r="B105" s="179" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105" s="194" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" s="194" t="s">
+        <v>29</v>
+      </c>
+      <c r="E105" s="194" t="s">
+        <v>0</v>
+      </c>
+      <c r="F105" s="194" t="s">
+        <v>25</v>
+      </c>
+      <c r="G105" s="194" t="s">
+        <v>30</v>
+      </c>
+      <c r="H105" s="194" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A106" s="193"/>
+      <c r="B106" s="198" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C106" s="198"/>
+      <c r="D106" s="198" t="s">
+        <v>3291</v>
+      </c>
+      <c r="E106" s="198"/>
+      <c r="F106" s="198"/>
+      <c r="G106" s="198" t="s">
+        <v>3292</v>
+      </c>
+      <c r="H106" s="198"/>
+    </row>
+    <row r="107" spans="1:8" s="12" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A107" s="193"/>
+      <c r="B107" s="198"/>
+      <c r="C107" s="198"/>
+      <c r="D107" s="198" t="s">
+        <v>3293</v>
+      </c>
+      <c r="E107" s="198"/>
+      <c r="F107" s="198"/>
+      <c r="G107" s="198"/>
+      <c r="H107" s="198"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A86:A100"/>
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="A21:A35"/>
     <mergeCell ref="A37:A52"/>
